--- a/datasets/glove-100-euclidean-true-labels.xlsx
+++ b/datasets/glove-100-euclidean-true-labels.xlsx
@@ -506,7 +506,7 @@
  4.2142 4.24   4.2402 4.2436 4.2462 4.2538 4.2585 4.2622 4.2642 4.2717
  4.2757 4.2816 4.2827 4.2841 4.2843 4.286  4.2865 4.2875 4.2913 4.2915
  4.2938 4.2942 4.2966 4.2974 4.3055 4.3057 4.3094 4.3109 4.3127 4.3175
- 4.3175 4.3208 4.3222 4.3242 4.3274 4.3302 4.3343 4.3375 4.3416 4.3423
+ 4.3175 4.3208 4.3222 4.3241 4.3274 4.3302 4.3343 4.3375 4.3416 4.3423
  4.3444 4.3458 4.3462 4.348  4.3537 4.3563 4.3564 4.3589 4.3589 4.3601
  4.3607 4.3611 4.3623 4.3652 4.3672 4.3683 4.3685 4.3691 4.3704 4.371
  4.3714 4.372  4.3734 4.3741 4.3755 4.3785 4.3818 4.3888 4.3896 4.3907
@@ -574,7 +574,7 @@
         <is>
           <t>[6.1814 6.2242 6.2581 6.2619 6.2684 6.3209 6.3653 6.3925 6.4052 6.4062
  6.4203 6.4302 6.4441 6.4467 6.4497 6.4542 6.4589 6.4636 6.468  6.469
- 6.4784 6.4792 6.4818 6.4834 6.4842 6.4854 6.4863 6.4885 6.4912 6.4983
+ 6.4785 6.4792 6.4818 6.4834 6.4842 6.4854 6.4863 6.4885 6.4912 6.4983
  6.5013 6.5021 6.51   6.5109 6.5126 6.5131 6.5132 6.5156 6.5162 6.5164
  6.5237 6.5259 6.5285 6.5368 6.5384 6.5406 6.5416 6.5419 6.545  6.5456
  6.5476 6.5479 6.5499 6.5513 6.5554 6.5557 6.5568 6.5598 6.5647 6.5667
@@ -645,7 +645,7 @@
           <t>[6.233  6.3498 6.3727 6.3944 6.3981 6.4007 6.438  6.4386 6.5215 6.5243
  6.5382 6.5412 6.5453 6.5523 6.5551 6.5573 6.5586 6.5663 6.5695 6.5821
  6.5823 6.5862 6.588  6.5886 6.5919 6.5927 6.5944 6.5949 6.595  6.595
- 6.5961 6.5987 6.6008 6.6025 6.6051 6.608  6.6089 6.6109 6.6136 6.6193
+ 6.5961 6.5987 6.6008 6.6025 6.6051 6.608  6.6089 6.611  6.6136 6.6193
  6.6212 6.6217 6.6228 6.6249 6.6317 6.632  6.6349 6.6352 6.6372 6.6395
  6.644  6.645  6.6451 6.6463 6.647  6.6476 6.6482 6.6517 6.6526 6.6529
  6.6532 6.6552 6.6579 6.6588 6.6613 6.6626 6.6626 6.663  6.6671 6.668
@@ -896,7 +896,7 @@
  3.9934 3.9938 3.9951 3.9961 4.     4.0012 4.0014 4.0044 4.0049 4.0052
  4.0067 4.0077 4.0086 4.009  4.0092 4.0098 4.0124 4.0161 4.019  4.02
  4.02   4.0205 4.0213 4.0218 4.0225 4.0227 4.0228 4.0241 4.0275 4.0277
- 4.0308 4.0312 4.0321 4.0332 4.0338 4.0365 4.0412 4.0424 4.043  4.0435]</t>
+ 4.0308 4.0312 4.032  4.0332 4.0338 4.0365 4.0412 4.0424 4.043  4.0435]</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
         <is>
           <t>[4.6333 4.7355 4.7591 4.7895 4.8002 4.8051 4.8406 4.8425 4.8575 4.8653
  4.8702 4.8743 4.8744 4.8756 4.8803 4.8866 4.9004 4.9018 4.9111 4.9171
- 4.922  4.9237 4.9277 4.9288 4.9296 4.9318 4.9354 4.9448 4.9457 4.9469
+ 4.922  4.9237 4.9277 4.9288 4.9296 4.9318 4.9355 4.9448 4.9457 4.9469
  4.9495 4.9539 4.9549 4.9555 4.9568 4.959  4.9602 4.9636 4.9656 4.9657
  4.9679 4.9686 4.9698 4.9748 4.9782 4.9791 4.9821 4.9839 4.9842 4.986
  4.9866 4.9878 4.9919 4.9947 4.997  4.9976 4.9978 4.9991 4.9999 5.0012
@@ -1525,7 +1525,7 @@
  4.5065 4.5089 4.5091 4.5096 4.5111 4.5112 4.514  4.5153 4.5158 4.5189
  4.5191 4.5202 4.5222 4.5234 4.5242 4.5253 4.5274 4.5313 4.5368 4.5378
  4.5399 4.5402 4.5407 4.5408 4.5448 4.5462 4.5476 4.5499 4.5527 4.5528
- 4.5601 4.5632 4.5633 4.564  4.5647 4.5681 4.5688 4.5695 4.5704 4.5705
+ 4.5601 4.5632 4.5633 4.564  4.5647 4.5681 4.5687 4.5695 4.5704 4.5705
  4.5708 4.5754 4.5761 4.5773 4.5773 4.5798 4.5799 4.5837 4.5843 4.5853]</t>
         </is>
       </c>
@@ -1627,7 +1627,7 @@
  3.3075 3.3093 3.3161 3.3219 3.3388 3.3526 3.3611 3.3634 3.3654 3.372
  3.3745 3.3757 3.3761 3.3763 3.3786 3.3788 3.3795 3.3925 3.3945 3.3976
  3.3977 3.4001 3.4032 3.408  3.409  3.4097 3.4098 3.4187 3.4202 3.4231
- 3.4244 3.4268 3.4325 3.4336 3.4338 3.4353 3.4382 3.4382 3.4419 3.4423
+ 3.4244 3.4268 3.4325 3.4337 3.4338 3.4353 3.4382 3.4382 3.4419 3.4423
  3.4435 3.4435 3.4451 3.4453 3.4472 3.4472 3.4475 3.4478 3.448  3.4502
  3.4517 3.4579 3.4591 3.4605 3.4605 3.4607 3.4638 3.4642 3.4643 3.4646
  3.4649 3.4651 3.4653 3.466  3.4664 3.4685 3.4703 3.4704 3.4722 3.4727
@@ -1868,7 +1868,7 @@
       <c r="C42" t="inlineStr">
         <is>
           <t>[6.4218 6.5175 6.5413 6.6034 6.6062 6.6205 6.6382 6.6424 6.6591 6.6622
- 6.6964 6.702  6.7051 6.7218 6.7223 6.7285 6.7388 6.7393 6.7512 6.7513
+ 6.6964 6.702  6.7051 6.7218 6.7223 6.7285 6.7388 6.7393 6.7512 6.7514
  6.7514 6.7549 6.7575 6.7576 6.7651 6.7653 6.768  6.77   6.7715 6.7724
  6.7728 6.7824 6.7832 6.7869 6.7884 6.7925 6.7928 6.7956 6.7973 6.8019
  6.8025 6.8033 6.8038 6.8127 6.8131 6.8138 6.8183 6.8208 6.8215 6.822
@@ -1939,7 +1939,7 @@
         <is>
           <t>[3.5067 3.6214 3.7669 3.7697 3.7876 3.7986 3.849  3.8881 3.9572 3.9688
  3.9732 3.9743 3.9839 3.9919 3.9979 4.0056 4.006  4.0114 4.0165 4.03
- 4.0332 4.0476 4.0622 4.0849 4.0881 4.0932 4.1027 4.1212 4.1282 4.1321
+ 4.0332 4.0476 4.0622 4.0848 4.0881 4.0932 4.1027 4.1212 4.1282 4.1321
  4.1431 4.1436 4.1532 4.1572 4.1578 4.1616 4.1621 4.1689 4.1767 4.1805
  4.187  4.1914 4.1958 4.2009 4.2021 4.2027 4.2068 4.2068 4.208  4.2112
  4.2135 4.2178 4.2179 4.2179 4.2201 4.2218 4.2233 4.2286 4.2347 4.2351
@@ -2288,14 +2288,14 @@
       <c r="C54" t="inlineStr">
         <is>
           <t>[5.4005 5.6427 5.6794 5.6903 5.702  5.7423 5.7554 5.848  5.8508 5.8578
- 5.8625 5.8658 5.8702 5.8894 5.8995 5.9143 5.9324 5.9366 5.9371 5.9387
+ 5.8625 5.8658 5.8702 5.8894 5.8995 5.9142 5.9324 5.9366 5.9371 5.9387
  5.9441 5.9475 5.9557 5.9581 5.968  5.9689 5.9777 5.9821 5.9841 5.9851
  5.9883 5.9891 5.9899 5.9958 6.0045 6.0072 6.0119 6.0138 6.017  6.0212
  6.0218 6.0242 6.0249 6.0265 6.0282 6.0334 6.0346 6.0347 6.0372 6.0449
  6.0478 6.0494 6.0558 6.0603 6.0627 6.0664 6.0673 6.0677 6.0684 6.0733
  6.0751 6.0762 6.0818 6.0826 6.0841 6.0844 6.0872 6.0902 6.0914 6.0937
  6.0964 6.0966 6.0967 6.0968 6.0982 6.1022 6.1026 6.1054 6.1059 6.1063
- 6.1067 6.1101 6.1105 6.1106 6.111  6.1124 6.1143 6.1167 6.122  6.1222
+ 6.1067 6.1101 6.1105 6.1106 6.111  6.1124 6.1143 6.1167 6.1219 6.1222
  6.1231 6.1232 6.1233 6.1253 6.1258 6.1262 6.1287 6.1296 6.1308 6.1328]</t>
         </is>
       </c>
@@ -2608,7 +2608,7 @@
  3.3161 3.323  3.3292 3.3295 3.3312 3.3325 3.3338 3.3346 3.3369 3.3413
  3.3444 3.3456 3.3539 3.3541 3.3542 3.3549 3.3558 3.3576 3.358  3.3607
  3.3705 3.3706 3.3724 3.3759 3.3761 3.3775 3.3778 3.3792 3.3828 3.3843
- 3.3853 3.3877 3.3882 3.3887 3.3935 3.3988 3.401  3.4029 3.4043 3.4074
+ 3.3853 3.3877 3.3882 3.3887 3.3935 3.3988 3.401  3.4029 3.4043 3.4073
  3.4088 3.4106 3.4169 3.4176 3.4191 3.4216 3.422  3.4221 3.424  3.425
  3.4254 3.4281 3.4294 3.4302 3.4333 3.4339 3.4365 3.4382 3.4428 3.4428
  3.4463 3.4469 3.4473 3.4493 3.4522 3.453  3.4532 3.4542 3.4546 3.4549]</t>
@@ -2781,7 +2781,7 @@
  2.7661 2.773  2.7868 2.7874 2.7879 2.7883 2.792  2.8035 2.8068 2.8164
  2.8211 2.8212 2.8277 2.8402 2.841  2.8416 2.8432 2.8482 2.8569 2.8622
  2.8628 2.8657 2.8672 2.8688 2.8774 2.8819 2.8899 2.8966 2.8986 2.9
- 2.9059 2.9087 2.9163 2.9181 2.9189 2.9233 2.9264 2.9269 2.9293 2.9311
+ 2.9059 2.9087 2.9163 2.9181 2.9189 2.9233 2.9265 2.9269 2.9293 2.9311
  2.9327 2.9337 2.9344 2.9393 2.9414 2.9425 2.9445 2.9452 2.9484 2.9503
  2.9537 2.9559 2.9576 2.963  2.9645 2.9666 2.9688 2.9707 2.9721 2.9743
  2.9798 2.9872 2.9885 2.9887 2.9912 2.9957 2.9979 2.9991 2.9992 3.0033
@@ -3059,7 +3059,7 @@
         <is>
           <t>[6.7646 6.8273 6.8475 6.8477 6.8761 6.8825 6.8888 6.8983 6.9053 6.9136
  6.9228 6.9239 6.924  6.9318 6.9367 6.9597 6.9609 6.9712 6.9728 6.9771
- 6.9798 6.9911 6.9918 6.9953 7.002  7.0026 7.0112 7.0126 7.0159 7.0188
+ 6.9799 6.9911 6.9918 6.9953 7.002  7.0026 7.0112 7.0126 7.0159 7.0188
  7.0299 7.0391 7.0403 7.0419 7.0437 7.0458 7.0548 7.0604 7.0621 7.0675
  7.0753 7.0765 7.0777 7.0779 7.0862 7.0865 7.0866 7.0903 7.095  7.0971
  7.099  7.099  7.1007 7.1049 7.1096 7.112  7.1138 7.1143 7.1166 7.1195
@@ -3275,7 +3275,7 @@
  4.7567 4.7579 4.7581 4.763  4.7636 4.7646 4.765  4.7656 4.766  4.7672
  4.7697 4.7736 4.7766 4.7777 4.7796 4.7827 4.7845 4.7847 4.7861 4.7862
  4.7872 4.7878 4.7892 4.7898 4.7901 4.7911 4.7925 4.793  4.7932 4.7946
- 4.7961 4.7996 4.7997 4.8008 4.8013 4.8027 4.8027 4.8064 4.8067 4.8077
+ 4.7961 4.7997 4.7997 4.8008 4.8013 4.8027 4.8027 4.8064 4.8067 4.8077
  4.8081 4.8082 4.8121 4.8123 4.8129 4.8134 4.8136 4.8144 4.8176 4.8178]</t>
         </is>
       </c>
@@ -3415,7 +3415,7 @@
  3.6823 3.6825 3.6829 3.6845 3.6883 3.6886 3.6894 3.6924 3.694  3.6963
  3.6987 3.6999 3.7011 3.7049 3.706  3.7071 3.7073 3.7091 3.71   3.7119
  3.7124 3.714  3.7155 3.716  3.7162 3.7166 3.7184 3.7196 3.7201 3.7202
- 3.7231 3.7239 3.7247 3.7247 3.7254 3.7255 3.7256 3.7279 3.7281 3.7285
+ 3.7231 3.7239 3.7247 3.7247 3.7254 3.7255 3.7256 3.7279 3.7281 3.7284
  3.7287 3.7298 3.73   3.7312 3.7325 3.7337 3.7338 3.7347 3.7352 3.7366]</t>
         </is>
       </c>
@@ -3448,7 +3448,7 @@
  4.8744 4.8773 4.8795 4.8892 4.8898 4.8912 4.8998 4.9189 4.9287 4.9366
  4.9387 4.9448 4.9456 4.9472 4.9546 4.9586 4.9611 4.9701 4.9728 4.9756
  4.9845 4.9852 4.9917 4.9945 4.9959 5.0017 5.0088 5.0167 5.0177 5.0186
- 5.019  5.0193 5.0202 5.0211 5.0218 5.0224 5.0254 5.0256 5.031  5.0357
+ 5.0189 5.0193 5.0202 5.0211 5.0218 5.0224 5.0254 5.0256 5.031  5.0357
  5.0361 5.0363 5.048  5.0502 5.0503 5.0517 5.0539 5.0575 5.0586 5.0605
  5.065  5.0667 5.0673 5.0725 5.0727 5.0728 5.0755 5.0757 5.076  5.0761
  5.0776 5.0779 5.0796 5.0812 5.0831 5.0836 5.0836 5.0847 5.0852 5.0877]</t>
@@ -3503,7 +3503,7 @@
   221714   45624  878511  743092  893772  505857  776076  675975  569710
  1047547  847382  345555  734061  817788  452173  574961  730145 1167194
   845674  194829  452842  392603  667951 1112357 1053643  727947  809983
-  307695  212597  550303 1151577  960481 1037581  375838  552063  752171
+  307695  212597  550303 1151577  960481 1037581  552063  375838  752171
   210576   53250  274470   53068   20780  171030  556435  418383  320912
   944794  285914  645774  612462  440190  665420  100922  404805 1149867
   365494   24417  982605 1007368  704633  565145  694540 1156357  209154
@@ -3827,7 +3827,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>[4.1433 4.1598 4.2036 4.273  4.3392 4.3735 4.3876 4.4175 4.4187 4.4454
+          <t>[4.1433 4.1598 4.2036 4.273  4.3392 4.3736 4.3876 4.4175 4.4187 4.4454
  4.4575 4.4842 4.4964 4.5093 4.5166 4.5261 4.5275 4.5439 4.5517 4.5544
  4.5705 4.5725 4.5748 4.5753 4.5808 4.5953 4.6039 4.6046 4.6051 4.6074
  4.6075 4.6082 4.609  4.6141 4.6183 4.6266 4.6291 4.6299 4.637  4.6393
@@ -4530,7 +4530,7 @@
           <t>[4.2131 4.2214 4.3207 4.335  4.3479 4.3501 4.3598 4.3768 4.3778 4.3971
  4.4084 4.4117 4.4151 4.4186 4.4192 4.4225 4.4246 4.4262 4.4306 4.4357
  4.4379 4.4588 4.4689 4.4695 4.4718 4.472  4.4732 4.4736 4.4765 4.4783
- 4.4784 4.4816 4.4836 4.4858 4.4883 4.4887 4.489  4.4904 4.4912 4.4925
+ 4.4784 4.4816 4.4836 4.4858 4.4883 4.4887 4.489  4.4904 4.4911 4.4925
  4.4963 4.4987 4.5002 4.5047 4.5142 4.5149 4.5161 4.5185 4.5207 4.5291
  4.5304 4.5314 4.5318 4.5331 4.5334 4.5364 4.5366 4.5403 4.5431 4.5434
  4.5478 4.5496 4.5497 4.5528 4.5534 4.5535 4.5557 4.5558 4.5574 4.5578
@@ -4765,8 +4765,8 @@
   818275  537418  708550  141453  808451  980016  736700  124061  430077
   783169  426955  660787   54121 1042460  402376  229647  553619  430948
   451061  746705  388695  273644  363880  896841  361906  750397  243791
-  440006   18499  336708  359899 1098973  383677  936766  267730  212757
-  620957 1030491   24735  377440 1062683 1055651  483571 1174700  252571
+  440006   18499  336708  359899 1098973  383677  936766  267730  620957
+  212757 1030491   24735  377440 1062683 1055651  483571 1174700  252571
   187261]</t>
         </is>
       </c>
@@ -5060,7 +5060,7 @@
  5.6917 5.6935 5.6951 5.6962 5.6969 5.7003 5.7026 5.7089 5.7091 5.7111
  5.7113 5.7161 5.7179 5.7188 5.7218 5.7262 5.7274 5.729  5.7305 5.7322
  5.7329 5.7332 5.7338 5.7352 5.7362 5.7373 5.7384 5.7405 5.7416 5.7436
- 5.7465 5.7481 5.7494 5.7495 5.7496 5.7501 5.752  5.7541 5.7542 5.7545
+ 5.7465 5.7481 5.7494 5.7494 5.7496 5.7501 5.752  5.7541 5.7542 5.7545
  5.7553 5.7577 5.76   5.7603 5.761  5.7617 5.7677 5.7684 5.7698 5.7705]</t>
         </is>
       </c>
@@ -5236,7 +5236,7 @@
  4.7391 4.7392 4.7406 4.7406 4.7408 4.7424 4.7434 4.7439 4.7443 4.7446
  4.7459 4.7471 4.7476 4.7481 4.749  4.7491 4.7498 4.7498 4.7499 4.7507
  4.7548 4.7549 4.7555 4.7564 4.7567 4.7572 4.7572 4.7576 4.7585 4.7595
- 4.7597 4.7598 4.76   4.7607 4.761  4.7614 4.7628 4.763  4.763  4.7631]</t>
+ 4.7597 4.7598 4.76   4.7607 4.761  4.7614 4.7629 4.763  4.763  4.7631]</t>
         </is>
       </c>
     </row>
@@ -5253,7 +5253,7 @@
   370330  801485  653837  658628  779269  227179  380194  149705  537986
  1138868  287896  892024  396985  556448   30363  124911   33952  152958
   889834  445111  412903    7008  633994  651378  272286  452555  550944
-  130590  808505  822545  754189  117205  330079  812077  984763  458404
+  808505  130590  822545  754189  117205  330079  812077  984763  458404
   647508  904599 1009404 1070310  165959  555754  801145 1101377  253724
   912490  739865  160111  529459  297984  583987  943383  350038  210658
  1036953   46093  681504  574619  670167   46577   96224  811063  852626
@@ -5549,7 +5549,7 @@
  5.2452 5.2458 5.2505 5.2554 5.2556 5.2558 5.2582 5.259  5.2591 5.2602
  5.2611 5.2619 5.2634 5.2647 5.2654 5.2688 5.2739 5.2787 5.2819 5.2848
  5.2857 5.2883 5.2898 5.2922 5.2924 5.2924 5.2933 5.2937 5.2938 5.2944
- 5.2973 5.2975 5.2978 5.3001 5.3001 5.3027 5.3032 5.3037 5.3044 5.3054
+ 5.2973 5.2975 5.2978 5.3001 5.3001 5.3027 5.3032 5.3036 5.3044 5.3054
  5.3071 5.308  5.3082 5.3083 5.3099 5.3104 5.3105 5.3131 5.3131 5.3144
  5.3158 5.3162 5.3165 5.3175 5.3188 5.3189 5.3195 5.3196 5.321  5.3219]</t>
         </is>
@@ -5725,7 +5725,7 @@
  4.7939 4.7947 4.7951 4.7971 4.799  4.8013 4.8024 4.8033 4.8052 4.8101
  4.8105 4.8188 4.8207 4.8223 4.8254 4.8296 4.8329 4.8389 4.8461 4.8481
  4.8535 4.8628 4.8838 4.8854 4.8917 4.8937 4.8942 4.9014 4.9064 4.9072
- 4.9129 4.92   4.9229 4.9308 4.934  4.9377 4.9413 4.9444 4.9485 4.9496
+ 4.9129 4.92   4.9229 4.9308 4.934  4.9377 4.9413 4.9443 4.9485 4.9496
  4.9571 4.9592 4.9622 4.9658 4.9673 4.9699 4.9758 4.9774 4.9787 4.9819]</t>
         </is>
       </c>
@@ -5755,7 +5755,7 @@
           <t>[3.7625 3.7678 3.7828 3.9199 3.9349 3.9646 3.9744 3.9818 3.9848 3.9859
  3.9899 3.9915 3.9942 4.0081 4.0127 4.0137 4.0219 4.0272 4.0329 4.0334
  4.044  4.049  4.0512 4.0664 4.0688 4.0743 4.0758 4.0775 4.0784 4.0818
- 4.084  4.0841 4.0915 4.0919 4.0928 4.0928 4.0929 4.0983 4.1057 4.1058
+ 4.084  4.0841 4.0915 4.0919 4.0928 4.0928 4.093  4.0983 4.1057 4.1058
  4.1061 4.1071 4.1079 4.1093 4.1096 4.1158 4.1163 4.1167 4.1191 4.1204
  4.1232 4.1236 4.1241 4.1262 4.1313 4.1342 4.1366 4.1374 4.1382 4.1415
  4.1417 4.1422 4.1439 4.1468 4.1469 4.1472 4.1488 4.1528 4.1553 4.1569
@@ -6144,9 +6144,9 @@
  5.9628 5.9647 5.9672 5.9681 5.9702 5.9704 5.9712 5.9742 5.9748 5.9769
  5.9772 5.9794 5.9802 5.9808 5.9824 5.9862 5.9872 5.9883 5.9899 5.9908
  5.9911 5.9917 5.9929 6.001  6.0033 6.0061 6.0069 6.007  6.0073 6.0119
- 6.0134 6.0174 6.0184 6.0194 6.0196 6.02   6.02   6.0203 6.0209 6.0222
+ 6.0134 6.0174 6.0184 6.0194 6.0196 6.02   6.02   6.0203 6.0209 6.0221
  6.0234 6.0237 6.0246 6.0251 6.0252 6.027  6.0273 6.0275 6.0278 6.0297
- 6.0309 6.0316 6.032  6.0329 6.0342 6.036  6.0365 6.0368 6.0371 6.0373]</t>
+ 6.031  6.0316 6.032  6.0329 6.0342 6.036  6.0365 6.0368 6.0371 6.0373]</t>
         </is>
       </c>
     </row>
@@ -6386,7 +6386,7 @@
  5.6563 5.6835 5.6852 5.6942 5.6951 5.7222 5.7267 5.7762 5.7858 5.7941
  5.8146 5.8155 5.8222 5.8284 5.8294 5.835  5.8374 5.8419 5.8429 5.8521
  5.8524 5.8547 5.8683 5.8706 5.8791 5.8806 5.881  5.8812 5.89   5.891
- 5.8976 5.8979 5.9003 5.9006 5.9058 5.9064 5.9065 5.9067 5.9067 5.9072
+ 5.8976 5.8979 5.9003 5.9006 5.9057 5.9064 5.9065 5.9067 5.9067 5.9072
  5.909  5.9105 5.9116 5.9117 5.9126 5.9152 5.9158 5.9176 5.9179 5.9183
  5.9195 5.9207 5.9252 5.9289 5.929  5.9293 5.9294 5.9309 5.9312 5.932
  5.9322 5.9335 5.9365 5.9367 5.9377 5.9392 5.9393 5.9399 5.9431 5.9433
@@ -6910,7 +6910,7 @@
           <t>[4.4053 4.4189 4.474  4.4947 4.5484 4.6205 4.6235 4.6306 4.6994 4.7322
  4.743  4.7478 4.7535 4.7595 4.7799 4.7983 4.7989 4.8012 4.8013 4.8015
  4.804  4.8141 4.8144 4.8173 4.8189 4.8271 4.8276 4.8281 4.8427 4.8435
- 4.8461 4.847  4.8475 4.8514 4.8547 4.8605 4.8641 4.8717 4.8785 4.8799
+ 4.8461 4.847  4.8475 4.8514 4.8546 4.8605 4.8641 4.8717 4.8785 4.8799
  4.8838 4.884  4.8844 4.8918 4.893  4.8989 4.9    4.9051 4.9062 4.9082
  4.9133 4.9151 4.9151 4.9158 4.9174 4.9293 4.9293 4.9293 4.9318 4.9356
  4.9376 4.9388 4.9399 4.948  4.9508 4.9511 4.952  4.9526 4.9545 4.9555
@@ -7503,7 +7503,7 @@
       <c r="C203" t="inlineStr">
         <is>
           <t>[4.224  4.2361 4.2423 4.2485 4.2762 4.2914 4.2918 4.3056 4.3081 4.3445
- 4.3518 4.3636 4.3732 4.3736 4.397  4.4046 4.4122 4.4242 4.4262 4.4296
+ 4.3518 4.3636 4.3732 4.3736 4.3969 4.4046 4.4122 4.4242 4.4262 4.4296
  4.4385 4.4395 4.4493 4.4561 4.4604 4.4646 4.4685 4.4761 4.4781 4.4823
  4.483  4.4934 4.4983 4.5015 4.5018 4.5122 4.5141 4.516  4.5177 4.5204
  4.5218 4.5221 4.5243 4.5285 4.5301 4.533  4.5339 4.5346 4.5383 4.5397
@@ -7825,7 +7825,7 @@
  4.7671 4.7713 4.7714 4.7715 4.7776 4.7779 4.7801 4.7816 4.7827 4.7831
  4.7831 4.7866 4.7881 4.7886 4.7895 4.7897 4.7925 4.797  4.7973 4.8004
  4.8005 4.803  4.8055 4.8056 4.8065 4.807  4.8071 4.8082 4.8093 4.8096
- 4.8102 4.8127 4.8136 4.8152 4.816  4.8168 4.8176 4.8179 4.8188 4.8189
+ 4.8101 4.8127 4.8136 4.8152 4.816  4.8168 4.8176 4.8179 4.8188 4.8189
  4.8194 4.8199 4.8209 4.8216 4.8229 4.8235 4.8238 4.8244 4.8249 4.8257]</t>
         </is>
       </c>
@@ -8202,7 +8202,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>[3.5057 3.5081 3.5162 3.5691 3.5792 3.58   3.5914 3.5936 3.5943 3.6231
+          <t>[3.5056 3.5081 3.5162 3.5691 3.5792 3.58   3.5914 3.5936 3.5943 3.6231
  3.6247 3.6256 3.6381 3.6419 3.6467 3.6477 3.65   3.6616 3.662  3.6621
  3.6655 3.6732 3.6735 3.6772 3.6788 3.6788 3.6801 3.6834 3.6851 3.6874
  3.6936 3.6953 3.6957 3.6977 3.7006 3.7042 3.7121 3.7121 3.7127 3.7135
@@ -8311,7 +8311,7 @@
  7.0276 7.056  7.0573 7.0956 7.0982 7.1156 7.1236 7.1317 7.1324 7.1342
  7.14   7.1418 7.1453 7.1474 7.1474 7.1481 7.1523 7.1586 7.1599 7.1663
  7.1718 7.174  7.1778 7.1786 7.179  7.1825 7.1871 7.1915 7.1935 7.1938
- 7.1947 7.1985 7.1988 7.2137 7.2159 7.2228 7.2257 7.2297 7.2307 7.2318
+ 7.1947 7.1985 7.1988 7.2137 7.2159 7.2228 7.2257 7.2297 7.2307 7.2317
  7.2345 7.2355 7.2356 7.237  7.2376 7.2419 7.2449 7.2461 7.2462 7.2474
  7.2502 7.2504 7.2515 7.2528 7.2532 7.2536 7.2543 7.2553 7.2555 7.2566
  7.2577 7.2631 7.264  7.2649 7.2714 7.2728 7.2732 7.2748 7.2774 7.2815
@@ -8595,7 +8595,7 @@
  4.7741 4.7763 4.7765 4.778  4.7792 4.7834 4.7878 4.7884 4.7896 4.7905
  4.7933 4.8004 4.801  4.8012 4.8019 4.8029 4.803  4.8032 4.8049 4.8058
  4.8064 4.8066 4.8071 4.8078 4.8091 4.8096 4.8114 4.8127 4.8169 4.8201
- 4.8212 4.8221 4.8222 4.8236 4.8246 4.825  4.8258 4.8273 4.8302 4.8308
+ 4.8211 4.8221 4.8222 4.8236 4.8246 4.825  4.8258 4.8272 4.8302 4.8308
  4.8308 4.8309 4.832  4.8322 4.8344 4.8351 4.8368 4.8369 4.8378 4.839 ]</t>
         </is>
       </c>
@@ -8797,7 +8797,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>[5.615  5.6283 5.6303 5.6442 5.6513 5.6532 5.6772 5.6794 5.683  5.6886
+          <t>[5.615  5.6283 5.6303 5.6442 5.6513 5.6532 5.6772 5.6795 5.683  5.6886
  5.7081 5.7171 5.7293 5.7295 5.7397 5.7466 5.7636 5.7716 5.7736 5.7739
  5.7786 5.7815 5.7817 5.7827 5.7849 5.7867 5.7874 5.7921 5.7964 5.7969
  5.8011 5.8025 5.8028 5.8054 5.811  5.8131 5.8133 5.8152 5.8156 5.8162
@@ -9535,7 +9535,7 @@
           <t>[3.2358 3.2443 3.2693 3.2698 3.2811 3.2923 3.2988 3.3027 3.3068 3.3136
  3.3173 3.3244 3.352  3.3524 3.3626 3.3691 3.3706 3.3853 3.3927 3.3941
  3.3946 3.3962 3.399  3.4029 3.4157 3.4194 3.4328 3.4366 3.439  3.4458
- 3.4478 3.4491 3.4539 3.456  3.4602 3.4697 3.4723 3.4757 3.4765 3.4778
+ 3.4478 3.4491 3.4539 3.456  3.4602 3.4697 3.4723 3.4756 3.4765 3.4778
  3.4782 3.4792 3.4806 3.4809 3.4884 3.4896 3.4903 3.4904 3.4939 3.495
  3.5002 3.5009 3.5052 3.5056 3.506  3.507  3.5104 3.5113 3.514  3.5171
  3.5195 3.5199 3.5269 3.5278 3.5294 3.5301 3.5314 3.533  3.5348 3.5352
@@ -9749,7 +9749,7 @@
  2.1354 2.1402 2.1403 2.1404 2.1404 2.1419 2.1426 2.144  2.1442 2.1448
  2.1484 2.1486 2.1491 2.1516 2.1523 2.1527 2.1536 2.1538 2.1546 2.1546
  2.1547 2.1549 2.1551 2.1555 2.157  2.1573 2.159  2.159  2.16   2.1605
- 2.1613 2.1629 2.1706 2.1775 2.1791 2.1803 2.1915 2.1934 2.1951 2.1954
+ 2.1613 2.1629 2.1706 2.1775 2.179  2.1803 2.1915 2.1934 2.1951 2.1954
  2.1955 2.1967 2.1982 2.1987 2.2027 2.205  2.2082 2.2098 2.2115 2.2132
  2.2134 2.2159 2.216  2.2186 2.219  2.2201 2.2214 2.2217 2.2253 2.2265]</t>
         </is>
@@ -9783,7 +9783,7 @@
  4.7998 4.802  4.8081 4.8099 4.8102 4.8122 4.8156 4.8162 4.823  4.8248
  4.8261 4.827  4.8275 4.8324 4.8384 4.8394 4.8394 4.8427 4.843  4.8445
  4.8462 4.8469 4.8472 4.8477 4.85   4.8503 4.8528 4.8532 4.8535 4.8538
- 4.8547 4.8559 4.8595 4.8602 4.8615 4.8619 4.8621 4.8622 4.8627 4.8636
+ 4.8547 4.8559 4.8595 4.8601 4.8615 4.8619 4.8621 4.8622 4.8627 4.8636
  4.8639 4.8641 4.8659 4.868  4.8684 4.8699 4.8708 4.8736 4.8753 4.8768
  4.8788 4.8792 4.8822 4.8825 4.885  4.8851 4.8868 4.8886 4.8895 4.8913
  4.8927 4.8927 4.8927 4.8928 4.8933 4.8938 4.894  4.8946 4.8967 4.8981]</t>
@@ -10234,7 +10234,7 @@
         <is>
           <t>[3.8168 3.8469 3.9161 3.9522 3.9592 3.968  3.9759 4.0514 4.0996 4.1056
  4.1122 4.1153 4.1308 4.1417 4.1472 4.1488 4.154  4.1558 4.1567 4.1571
- 4.1609 4.1619 4.1623 4.1661 4.1662 4.167  4.1685 4.1702 4.1798 4.194
+ 4.1609 4.1618 4.1623 4.1661 4.1662 4.167  4.1685 4.1702 4.1798 4.194
  4.2046 4.2049 4.2107 4.2122 4.2195 4.2253 4.2334 4.2369 4.2389 4.247
  4.2489 4.2513 4.2532 4.2533 4.2545 4.2548 4.2563 4.2601 4.2672 4.2672
  4.2687 4.2689 4.2697 4.2728 4.276  4.2774 4.2818 4.2852 4.2863 4.2883
@@ -10306,7 +10306,7 @@
  4.0209 4.0322 4.0338 4.0361 4.0361 4.0385 4.044  4.046  4.0902 4.0983
  4.0989 4.1038 4.1064 4.1098 4.1102 4.1115 4.1147 4.1163 4.118  4.1195
  4.1207 4.1305 4.1316 4.1322 4.1328 4.1342 4.1345 4.1352 4.1386 4.142
- 4.1432 4.1459 4.1534 4.1539 4.161  4.1636 4.164  4.1641 4.1657 4.1681
+ 4.1432 4.1459 4.1534 4.1539 4.161  4.1637 4.164  4.1641 4.1657 4.1681
  4.1703 4.1716 4.1716 4.1774 4.1794 4.1808 4.1811 4.1829 4.1833 4.1844
  4.188  4.1887 4.1895 4.1898 4.1902 4.1922 4.1931 4.1935 4.1952 4.1953
  4.1966 4.1975 4.1991 4.1993 4.2024 4.2047 4.208  4.2081 4.2087 4.2097
@@ -10443,7 +10443,7 @@
       <c r="C287" t="inlineStr">
         <is>
           <t>[5.911  6.135  6.2174 6.2281 6.3133 6.3185 6.3622 6.3694 6.3719 6.3765
- 6.3913 6.3953 6.4259 6.4276 6.4313 6.4403 6.4422 6.4453 6.4505 6.4583
+ 6.3913 6.3953 6.4259 6.4276 6.4313 6.4403 6.4422 6.4453 6.4504 6.4583
  6.463  6.4703 6.4735 6.4742 6.4745 6.4847 6.4863 6.4878 6.4881 6.4908
  6.4921 6.4945 6.4974 6.4979 6.4985 6.5013 6.5064 6.5079 6.5177 6.518
  6.5201 6.5203 6.5218 6.5286 6.5295 6.5309 6.5314 6.5323 6.5341 6.5345
@@ -11920,7 +11920,7 @@
  2.6686 2.6707 2.6733 2.6743 2.6758 2.6779 2.6793 2.6815 2.6847 2.6859
  2.6889 2.6947 2.6973 2.6992 2.7002 2.701  2.7043 2.7054 2.7079 2.7132
  2.7151 2.7155 2.7162 2.7177 2.7196 2.7197 2.7198 2.7207 2.7222 2.7235
- 2.7246 2.7251 2.7285 2.7286 2.73   2.73   2.7303 2.7313 2.7318 2.7336
+ 2.7246 2.7251 2.7285 2.7286 2.73   2.73   2.7303 2.7313 2.7318 2.7337
  2.7337 2.7373 2.7374 2.7384 2.7425 2.7442 2.7452 2.7453 2.746  2.7461]</t>
         </is>
       </c>
@@ -11951,7 +11951,7 @@
  3.64   3.6506 3.6561 3.6568 3.6752 3.6799 3.6832 3.6969 3.7117 3.7126
  3.7304 3.7337 3.742  3.747  3.7474 3.749  3.7498 3.7504 3.7585 3.7612
  3.7672 3.7734 3.7734 3.7741 3.7803 3.7809 3.7916 3.8007 3.8047 3.8114
- 3.8293 3.8302 3.8307 3.8321 3.847  3.8487 3.8505 3.8513 3.8584 3.8596
+ 3.8293 3.8302 3.8306 3.8321 3.847  3.8487 3.8505 3.8513 3.8584 3.8596
  3.8609 3.8626 3.8675 3.8682 3.8709 3.8728 3.8782 3.8822 3.8842 3.8849
  3.8875 3.8878 3.891  3.9039 3.9049 3.9071 3.9083 3.9147 3.9178 3.9186
  3.92   3.9201 3.9251 3.9254 3.9263 3.9273 3.9274 3.9295 3.9357 3.9374
@@ -12970,7 +12970,7 @@
  4.396  4.396  4.3977 4.3981 4.4001 4.4066 4.4089 4.4092 4.4094 4.4095
  4.4125 4.4131 4.4144 4.4179 4.4193 4.4195 4.4196 4.4221 4.4228 4.4262
  4.4284 4.431  4.4311 4.4314 4.4323 4.4348 4.4366 4.4367 4.4371 4.4387
- 4.44   4.4431 4.4439 4.445  4.4484 4.4485 4.4516 4.4525 4.4534 4.4583
+ 4.44   4.4431 4.4439 4.445  4.4484 4.4484 4.4516 4.4525 4.4534 4.4583
  4.4593 4.4594 4.4599 4.4602 4.4605 4.4606 4.4609 4.4614 4.4618 4.4654]</t>
         </is>
       </c>
@@ -13251,7 +13251,7 @@
  4.9428 4.9444 4.9467 4.9478 4.951  4.9535 4.9547 4.9652 4.9664 4.9667
  4.9691 4.9692 4.9703 4.9718 4.9732 4.9734 4.9748 4.9754 4.977  4.9775
  4.9779 4.9779 4.9788 4.9827 4.9867 4.9878 4.9915 4.9965 4.9965 4.9966
- 4.997  5.0003 5.0007 5.0017 5.0038 5.0085 5.01   5.0113 5.0117 5.0118]</t>
+ 4.997  5.0003 5.0007 5.0017 5.0038 5.0085 5.01   5.0114 5.0117 5.0118]</t>
         </is>
       </c>
     </row>
@@ -13355,7 +13355,7 @@
  6.2032 6.2046 6.2101 6.2122 6.2143 6.2143 6.215  6.2155 6.2178 6.2197
  6.2199 6.2207 6.2209 6.2213 6.2216 6.2225 6.2229 6.2236 6.226  6.2275
  6.2282 6.2283 6.2314 6.2369 6.2376 6.2383 6.2401 6.2403 6.2425 6.2428
- 6.2435 6.245  6.2453 6.2453 6.2454 6.2465 6.2482 6.2484 6.2496 6.2511
+ 6.2435 6.245  6.2452 6.2453 6.2454 6.2465 6.2482 6.2484 6.2496 6.2511
  6.2513 6.2515 6.2516 6.2537 6.254  6.254  6.2545 6.2547 6.255  6.2552]</t>
         </is>
       </c>
@@ -13530,7 +13530,7 @@
  9.8246 9.8248 9.8268 9.8271 9.8311 9.8325 9.8328 9.8361 9.8377 9.8384
  9.8463 9.8482 9.8504 9.8506 9.8519 9.8581 9.8606 9.8625 9.8669 9.8687
  9.8694 9.8699 9.87   9.8709 9.8713 9.8736 9.8779 9.8797 9.8836 9.8838
- 9.8846 9.8847 9.8854 9.8873 9.89   9.8922 9.893  9.8936 9.8944 9.8958
+ 9.8846 9.8847 9.8854 9.8873 9.89   9.8922 9.893  9.8936 9.8944 9.8957
  9.8977 9.8985 9.8993 9.9    9.9027 9.9083 9.9099 9.914  9.9152 9.9158]</t>
         </is>
       </c>
@@ -13875,7 +13875,7 @@
           <t>[4.6007 4.6037 5.0838 5.1406 5.1421 5.1762 5.192  5.2136 5.2198 5.2229
  5.2247 5.2421 5.2433 5.2438 5.2456 5.2515 5.2543 5.2544 5.256  5.2563
  5.2596 5.2654 5.2815 5.2818 5.2868 5.2873 5.2892 5.2899 5.2908 5.2936
- 5.2941 5.3006 5.3028 5.3063 5.3072 5.3207 5.3231 5.3273 5.3354 5.336
+ 5.2941 5.3006 5.3028 5.3063 5.3072 5.3207 5.3231 5.3273 5.3354 5.3359
  5.3365 5.3385 5.3446 5.3467 5.3468 5.3476 5.3477 5.3532 5.3554 5.3584
  5.36   5.3605 5.3612 5.3648 5.3671 5.3681 5.37   5.3721 5.3727 5.3729
  5.3747 5.375  5.3756 5.3757 5.3764 5.3774 5.3783 5.3788 5.3813 5.3818
@@ -14263,7 +14263,7 @@
  3.7157 3.7207 3.7271 3.7496 3.7726 3.7778 3.7786 3.7815 3.7849 3.7863
  3.7923 3.7934 3.7941 3.7973 3.8064 3.8086 3.8148 3.8275 3.829  3.8449
  3.8508 3.852  3.8532 3.8623 3.8652 3.8695 3.8883 3.8935 3.9074 3.9091
- 3.9201 3.9255 3.9262 3.9282 3.9332 3.9374 3.9406 3.949  3.9519 3.9523
+ 3.9201 3.9255 3.9261 3.9282 3.9332 3.9374 3.9406 3.949  3.9519 3.9523
  3.9577 3.9686 3.9787 3.9795 3.984  3.9927 3.9941 4.0075 4.0225 4.0234
  4.026  4.0268 4.0348 4.0376 4.048  4.0538 4.0549 4.0638 4.0643 4.0667
  4.0756 4.0756 4.0791 4.0849 4.0907 4.0952 4.0967 4.1011 4.1028 4.1046]</t>
@@ -14574,7 +14574,7 @@
         <is>
           <t>[4.1076 4.2518 4.2996 4.3219 4.3537 4.3644 4.371  4.3711 4.3735 4.3919
  4.3929 4.3947 4.3955 4.4068 4.4257 4.4287 4.441  4.4475 4.4487 4.4491
- 4.4501 4.4518 4.4576 4.4656 4.4697 4.4745 4.4752 4.4788 4.4816 4.4818
+ 4.4501 4.4518 4.4576 4.4656 4.4697 4.4745 4.4752 4.4788 4.4816 4.4817
  4.4868 4.4878 4.4882 4.4882 4.4924 4.4954 4.4973 4.4995 4.5114 4.5206
  4.5219 4.524  4.5253 4.5253 4.5292 4.5294 4.53   4.5322 4.5323 4.5323
  4.5367 4.5382 4.5424 4.5431 4.5432 4.5436 4.5442 4.5445 4.545  4.5452
@@ -15383,7 +15383,7 @@
  3.9239 3.9348 3.9359 3.9464 3.9473 3.9536 3.9536 3.9557 3.9611 3.9616
  3.9637 3.9666 3.9679 3.9753 3.9782 3.98   3.9813 3.9949 3.9954 3.9959
  4.0008 4.0084 4.0152 4.0153 4.0161 4.0164 4.0167 4.0213 4.0227 4.0272
- 4.0273 4.0304 4.0314 4.0319 4.0366 4.0405 4.0417 4.0449 4.0482 4.0487
+ 4.0273 4.0304 4.0314 4.0318 4.0366 4.0405 4.0417 4.0449 4.0482 4.0487
  4.0496 4.0498 4.0611 4.064  4.067  4.0679 4.0702 4.0711 4.0726 4.0728
  4.0777 4.0834 4.0839 4.0886 4.0948 4.0956 4.0975 4.0983 4.1032 4.1074
  4.1077 4.1103 4.1117 4.124  4.1296 4.13   4.1336 4.1339 4.134  4.1349]</t>
@@ -15490,7 +15490,7 @@
  6.0335 6.0355 6.0362 6.0367 6.0372 6.0381 6.0386 6.0415 6.0427 6.0461
  6.0469 6.048  6.0498 6.0502 6.0507 6.0511 6.0527 6.0536 6.0544 6.0553
  6.057  6.0581 6.0589 6.0594 6.0614 6.0624 6.0636 6.0642 6.0657 6.0667
- 6.0677 6.069  6.0731 6.0736 6.0768 6.078  6.0798 6.0813 6.0814 6.084
+ 6.0677 6.069  6.073  6.0736 6.0768 6.078  6.0798 6.0813 6.0814 6.084
  6.0853 6.0853 6.0858 6.0862 6.0869 6.0877 6.089  6.0896 6.0929 6.093 ]</t>
         </is>
       </c>
@@ -15903,12 +15903,12 @@
       <c r="C443" t="inlineStr">
         <is>
           <t>[7.8441 7.9484 8.0736 8.1038 8.1085 8.1166 8.1304 8.1612 8.1612 8.1966
- 8.2003 8.2378 8.2442 8.258  8.2684 8.2789 8.3057 8.308  8.3221 8.3274
+ 8.2003 8.2378 8.2442 8.258  8.2684 8.279  8.3057 8.308  8.3221 8.3274
  8.3307 8.3374 8.3554 8.3556 8.3564 8.3676 8.3789 8.3791 8.3801 8.3944
  8.397  8.4011 8.4035 8.4064 8.4089 8.411  8.4113 8.4113 8.4114 8.4154
  8.4212 8.4219 8.4219 8.4256 8.4272 8.4344 8.4357 8.4407 8.4476 8.4528
  8.4544 8.4545 8.4546 8.455  8.4578 8.4632 8.4678 8.4725 8.4734 8.4737
- 8.4763 8.4772 8.4864 8.4891 8.4901 8.4919 8.4944 8.4956 8.4961 8.4967
+ 8.4763 8.4772 8.4863 8.4891 8.4901 8.4919 8.4944 8.4956 8.4961 8.4967
  8.4993 8.5027 8.5038 8.5064 8.508  8.5107 8.5167 8.5191 8.5201 8.5203
  8.5207 8.5232 8.5257 8.5259 8.5309 8.5311 8.5316 8.5334 8.5346 8.5365
  8.5378 8.5406 8.5412 8.5415 8.5419 8.5428 8.5432 8.5438 8.5467 8.5512]</t>
@@ -15931,7 +15931,7 @@
   413496  590222    6246  339570   16830  426788 1002634  102092  700843
    37701  948424  964724  311691  837937  765482  663716 1056700  113059
   270540  786267  416287  946470 1015033  361419  603406   56618  909074
-  826491  966100  339259  693485  465195   45535   46419 1158831  776725
+  826491  966100  339259  465195  693485   45535   46419 1158831  776725
   492731]</t>
         </is>
       </c>
@@ -16151,7 +16151,7 @@
  3.4681 3.469  3.4698 3.4705 3.4713 3.4746 3.4887 3.4926 3.4943 3.4966
  3.4983 3.5015 3.5042 3.5048 3.5159 3.5246 3.531  3.5352 3.536  3.5376
  3.5385 3.5399 3.5409 3.5424 3.5476 3.5488 3.5492 3.5522 3.5525 3.5639
- 3.5649 3.5654 3.5669 3.5672 3.5706 3.5719 3.573  3.5735 3.5739 3.5777
+ 3.5649 3.5654 3.5669 3.5672 3.5706 3.5719 3.573  3.5735 3.5739 3.5776
  3.5796 3.5796 3.5802 3.5806 3.5836 3.5837 3.5841 3.5843 3.5847 3.586
  3.5862 3.5881 3.5927 3.5928 3.5938 3.5965 3.5968 3.5996 3.6004 3.606
  3.6087 3.6103 3.6106 3.6117 3.6123 3.6133 3.6143 3.6151 3.616  3.6177
@@ -16291,7 +16291,7 @@
  5.5319 5.5605 5.5684 5.5968 5.6059 5.6217 5.6525 5.6724 5.6806 5.6838
  5.6952 5.7018 5.7119 5.7178 5.7198 5.7247 5.728  5.7426 5.7528 5.762
  5.7688 5.7706 5.7827 5.7883 5.7934 5.7937 5.805  5.8131 5.8165 5.821
- 5.8253 5.8258 5.829  5.8324 5.8342 5.8393 5.8489 5.8603 5.882  5.8893
+ 5.8253 5.8258 5.829  5.8324 5.8342 5.8393 5.8489 5.8603 5.8821 5.8893
  5.8946 5.8991 5.8996 5.9026 5.9086 5.9133 5.916  5.9298 5.9314 5.9319
  5.9324 5.9354 5.9373 5.9399 5.941  5.9442 5.9467 5.9488 5.9547 5.9568
  5.9602 5.9622 5.9632 5.9636 5.972  5.9763 5.9782 5.9784 5.9791 5.9832
@@ -16533,7 +16533,7 @@
       <c r="C461" t="inlineStr">
         <is>
           <t>[4.5252 4.6334 4.6389 4.6841 4.6877 4.7019 4.7105 4.7222 4.7453 4.7563
- 4.766  4.7663 4.8028 4.8111 4.8246 4.8284 4.8289 4.8301 4.8377 4.8417
+ 4.766  4.7663 4.8028 4.8112 4.8246 4.8284 4.8289 4.8301 4.8377 4.8417
  4.8438 4.8471 4.8585 4.8595 4.8778 4.8791 4.8813 4.8816 4.8826 4.8828
  4.8835 4.8839 4.8875 4.8883 4.89   4.8909 4.8944 4.898  4.9022 4.9036
  4.9069 4.9081 4.9104 4.9145 4.9153 4.9163 4.9165 4.9187 4.9223 4.9225
@@ -17205,7 +17205,7 @@
  5.3687 5.3694 5.3716 5.374  5.3741 5.3753 5.3754 5.3763 5.3772 5.3783
  5.3786 5.3797 5.3807 5.381  5.3821 5.3841 5.3873 5.3894 5.3908 5.3939
  5.3952 5.3953 5.396  5.3962 5.3978 5.3987 5.3994 5.4008 5.4009 5.4031
- 5.4058 5.4064 5.4077 5.4103 5.4108 5.411  5.411  5.4133 5.4164 5.4166
+ 5.4058 5.4064 5.4077 5.4103 5.4108 5.411  5.411  5.4133 5.4163 5.4166
  5.4171 5.4171 5.4173 5.4178 5.4179 5.4181 5.4197 5.42   5.4204 5.4215]</t>
         </is>
       </c>
@@ -17486,7 +17486,7 @@
  3.2041 3.2046 3.2059 3.2087 3.2099 3.2197 3.2212 3.2219 3.2229 3.2233
  3.2246 3.2333 3.2338 3.2339 3.2342 3.248  3.2485 3.2492 3.2565 3.2583
  3.2584 3.2594 3.2642 3.2653 3.2674 3.2705 3.2735 3.2759 3.2763 3.2798
- 3.2803 3.2851 3.2855 3.2857 3.2859 3.288  3.288  3.2882 3.2899 3.2908]</t>
+ 3.2803 3.2851 3.2855 3.2857 3.2859 3.288  3.288  3.2881 3.2899 3.2908]</t>
         </is>
       </c>
     </row>
@@ -17800,7 +17800,7 @@
  6.1165 6.1208 6.1218 6.1232 6.1239 6.1247 6.1283 6.1317 6.1337 6.1338
  6.1377 6.1391 6.1396 6.1402 6.1462 6.1502 6.1546 6.1566 6.1577 6.1582
  6.1585 6.16   6.1601 6.1604 6.1622 6.1631 6.1633 6.164  6.1641 6.1677
- 6.1697 6.1718 6.1728 6.1729 6.173  6.174  6.176  6.1788 6.1816 6.1816
+ 6.1697 6.1718 6.1728 6.1729 6.173  6.174  6.176  6.1789 6.1816 6.1816
  6.1845 6.185  6.1864 6.1874 6.1897 6.19   6.1901 6.1916 6.1918 6.1922]</t>
         </is>
       </c>
@@ -18563,7 +18563,7 @@
       <c r="C519" t="inlineStr">
         <is>
           <t>[3.9436 3.9637 4.0894 4.0997 4.1116 4.1589 4.1642 4.1756 4.2047 4.2119
- 4.2371 4.2395 4.2515 4.2528 4.2719 4.2906 4.296  4.3027 4.3046 4.3141
+ 4.2371 4.2395 4.2515 4.2528 4.2719 4.2906 4.2961 4.3027 4.3046 4.3141
  4.3165 4.3179 4.3222 4.3259 4.3316 4.3395 4.3413 4.3438 4.3458 4.3506
  4.3583 4.3652 4.3766 4.383  4.3871 4.389  4.4129 4.4166 4.4198 4.4216
  4.4224 4.4237 4.4257 4.4292 4.4295 4.4387 4.4395 4.442  4.4448 4.4486
@@ -19166,7 +19166,7 @@
  6.8133 6.8161 6.8191 6.823  6.8243 6.8278 6.8286 6.8294 6.8318 6.8337
  6.8395 6.8396 6.845  6.8488 6.8496 6.8563 6.8565 6.8565 6.8602 6.8622
  6.8661 6.868  6.8685 6.8717 6.8755 6.8773 6.88   6.8815 6.8835 6.8836
- 6.8888 6.8916 6.8955 6.8956 6.8982 6.9018 6.9024 6.903  6.9042 6.908 ]</t>
+ 6.8888 6.8916 6.8955 6.8956 6.8982 6.9017 6.9024 6.903  6.9042 6.908 ]</t>
         </is>
       </c>
     </row>
@@ -19298,7 +19298,7 @@
       <c r="C540" t="inlineStr">
         <is>
           <t>[3.8508 4.6137 4.7495 4.7585 4.7735 4.8468 4.8487 4.869  4.8954 4.9305
- 4.9409 4.9463 4.9559 4.9634 4.9669 4.9729 4.9739 4.9874 4.9943 5.0016
+ 4.9409 4.9463 4.9559 4.9634 4.967  4.9729 4.9739 4.9874 4.9943 5.0016
  5.0092 5.0149 5.0184 5.0318 5.0381 5.0435 5.0499 5.0778 5.0792 5.0931
  5.0946 5.1009 5.1047 5.1131 5.1142 5.1214 5.1255 5.1379 5.1393 5.1428
  5.1454 5.1464 5.1483 5.1534 5.1584 5.1585 5.1634 5.1642 5.166  5.1756
@@ -19579,7 +19579,7 @@
         <is>
           <t>[4.2654 4.3195 4.3929 4.4536 4.4578 4.4707 4.4725 4.4743 4.479  4.4955
  4.4959 4.5197 4.5365 4.5448 4.5705 4.5827 4.5901 4.5967 4.5995 4.5996
- 4.5996 4.6029 4.6106 4.612  4.612  4.6312 4.6317 4.634  4.6416 4.6426
+ 4.5996 4.6029 4.6107 4.612  4.612  4.6312 4.6317 4.634  4.6416 4.6426
  4.6487 4.6538 4.6542 4.6562 4.6639 4.6663 4.6667 4.6704 4.6718 4.6812
  4.6827 4.685  4.6858 4.6872 4.6879 4.6901 4.6922 4.6998 4.7021 4.7026
  4.7039 4.7042 4.706  4.7062 4.7072 4.7077 4.7118 4.7143 4.7145 4.7149
@@ -19754,7 +19754,7 @@
         <is>
           <t>[3.5922 3.6192 3.694  3.7643 3.803  3.8314 3.8359 3.846  3.8531 3.9004
  3.9382 3.9435 3.9805 3.9952 4.0075 4.036  4.0439 4.0562 4.0674 4.0689
- 4.0803 4.081  4.0872 4.0897 4.1003 4.121  4.1322 4.1386 4.1483 4.1536
+ 4.0803 4.081  4.0872 4.0897 4.1003 4.1211 4.1322 4.1386 4.1483 4.1536
  4.156  4.1582 4.1614 4.1655 4.1892 4.1896 4.2049 4.2157 4.2171 4.2206
  4.2218 4.2221 4.2305 4.2411 4.2464 4.2512 4.2548 4.2557 4.2588 4.267
  4.2679 4.2705 4.2706 4.2717 4.2753 4.279  4.2847 4.2924 4.3044 4.3054
@@ -19796,7 +19796,7 @@
  4.532  4.5322 4.5347 4.539  4.5396 4.54   4.5405 4.5412 4.5425 4.5426
  4.5443 4.5451 4.5487 4.5518 4.5532 4.5543 4.5543 4.5564 4.5564 4.5573
  4.5573 4.5573 4.5598 4.5614 4.5624 4.5629 4.5629 4.5635 4.5636 4.5639
- 4.5653 4.5655 4.5665 4.5666 4.5677 4.5678 4.568  4.5689 4.5691 4.571 ]</t>
+ 4.5653 4.5655 4.5665 4.5666 4.5677 4.5678 4.568  4.5689 4.5691 4.5711]</t>
         </is>
       </c>
     </row>
@@ -19823,7 +19823,7 @@
       <c r="C555" t="inlineStr">
         <is>
           <t>[5.2551 5.628  5.6495 5.6502 5.6598 5.6644 5.6833 5.7034 5.7079 5.7227
- 5.7678 5.7722 5.7773 5.7824 5.7842 5.7904 5.7925 5.8043 5.8087 5.8175
+ 5.7679 5.7722 5.7773 5.7824 5.7842 5.7904 5.7925 5.8043 5.8087 5.8175
  5.8199 5.8208 5.8286 5.8294 5.8311 5.8332 5.8411 5.8412 5.8446 5.8484
  5.8548 5.856  5.8575 5.8608 5.8609 5.864  5.8688 5.8708 5.8737 5.8779
  5.8814 5.8836 5.8875 5.8936 5.894  5.895  5.896  5.897  5.8997 5.8997
@@ -19857,14 +19857,14 @@
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>[4.0955 4.1083 4.1328 4.1722 4.2142 4.3244 4.3498 4.3723 4.4052 4.422
+          <t>[4.0955 4.1083 4.1328 4.1722 4.2142 4.3244 4.3498 4.3724 4.4052 4.422
  4.4363 4.4931 4.5068 4.5084 4.5122 4.5419 4.5695 4.5778 4.5854 4.5994
  4.6091 4.6103 4.6167 4.6427 4.6428 4.6451 4.6507 4.6655 4.6786 4.6824
  4.6839 4.6909 4.6951 4.7128 4.7155 4.7195 4.7233 4.734  4.7459 4.7521
  4.7541 4.7592 4.7729 4.7791 4.7906 4.7941 4.7956 4.8037 4.8068 4.8069
  4.8168 4.822  4.8248 4.8259 4.8268 4.8274 4.8274 4.8303 4.8305 4.8315
  4.8391 4.8396 4.8431 4.8508 4.8541 4.8576 4.8589 4.8595 4.8656 4.8766
- 4.8776 4.8781 4.8783 4.8868 4.8908 4.8909 4.8925 4.8951 4.9047 4.9057
+ 4.8776 4.8781 4.8783 4.8867 4.8908 4.8909 4.8925 4.8951 4.9047 4.9057
  4.9071 4.9089 4.912  4.9136 4.9141 4.919  4.9279 4.9282 4.9318 4.9358
  4.937  4.9412 4.9435 4.9439 4.9467 4.9483 4.9561 4.9639 4.9665 4.9681]</t>
         </is>
@@ -20175,7 +20175,7 @@
           <t>[4.2854 4.2988 4.3683 4.4119 4.4158 4.4778 4.4835 4.4866 4.4884 4.497
  4.5031 4.5056 4.5106 4.5226 4.5245 4.5269 4.535  4.5465 4.5489 4.5529
  4.5586 4.565  4.5735 4.5768 4.5822 4.5835 4.5862 4.6114 4.6122 4.6169
- 4.6171 4.6231 4.6232 4.6248 4.6252 4.626  4.6266 4.6294 4.6367 4.6386
+ 4.6171 4.6231 4.6232 4.6248 4.6251 4.626  4.6266 4.6294 4.6367 4.6386
  4.64   4.6469 4.6493 4.6519 4.6522 4.6577 4.6577 4.6585 4.6601 4.6624
  4.6694 4.6716 4.6739 4.6762 4.6762 4.6765 4.6778 4.6847 4.6867 4.6873
  4.6883 4.6889 4.689  4.6904 4.6936 4.6949 4.6949 4.6968 4.6972 4.6973
@@ -20522,7 +20522,7 @@
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>[3.8297 4.1493 4.2264 4.2518 4.2735 4.341  4.4442 4.5433 4.5594 4.5791
+          <t>[3.8297 4.1493 4.2264 4.2518 4.2735 4.341  4.4441 4.5433 4.5594 4.5791
  4.6348 4.6387 4.6406 4.6492 4.6911 4.6915 4.6976 4.7099 4.7326 4.7375
  4.777  4.779  4.7856 4.7943 4.7958 4.796  4.7985 4.8018 4.8074 4.8202
  4.8272 4.8312 4.8343 4.8364 4.8449 4.8492 4.8543 4.8571 4.8577 4.8649
@@ -21717,7 +21717,7 @@
  4.5161 4.5172 4.5269 4.5273 4.5303 4.5303 4.5342 4.5375 4.5386 4.544
  4.5459 4.5525 4.57   4.5736 4.579  4.5842 4.5856 4.5878 4.5941 4.5942
  4.5979 4.5991 4.6037 4.6046 4.6097 4.6141 4.6144 4.6155 4.6172 4.6211
- 4.6251 4.6254 4.6277 4.6297 4.6303 4.6353 4.6354 4.6355 4.6369 4.6409
+ 4.6251 4.6254 4.6277 4.6297 4.6303 4.6353 4.6355 4.6355 4.6369 4.6409
  4.6466 4.6477 4.6478 4.6479 4.6491 4.6523 4.655  4.6556 4.657  4.6635
  4.6652 4.667  4.6717 4.6726 4.6816 4.6826 4.6831 4.6831 4.6832 4.6887
  4.6911 4.6927 4.6946 4.6976 4.698  4.6993 4.7014 4.7016 4.7039 4.7122
@@ -21924,7 +21924,7 @@
         <is>
           <t>[3.5895 3.8929 3.9527 3.9809 4.0003 4.0369 4.1199 4.1406 4.1527 4.1751
  4.1834 4.1882 4.1949 4.196  4.2196 4.2292 4.2322 4.2419 4.2495 4.2668
- 4.296  4.2986 4.2999 4.3006 4.3012 4.3128 4.3163 4.3182 4.3271 4.3271
+ 4.296  4.2985 4.2999 4.3006 4.3012 4.3128 4.3163 4.3182 4.3271 4.3271
  4.3327 4.3364 4.3424 4.3475 4.375  4.3776 4.3783 4.3792 4.3796 4.3827
  4.3854 4.3862 4.3936 4.3938 4.3956 4.3972 4.3997 4.3998 4.4025 4.4046
  4.4097 4.4115 4.4118 4.4285 4.429  4.4291 4.4325 4.4328 4.4348 4.4404
@@ -21995,7 +21995,7 @@
           <t>[5.1057 5.1185 5.166  5.2061 5.2143 5.2207 5.3083 5.3172 5.3353 5.3457
  5.3519 5.362  5.362  5.3728 5.3813 5.3886 5.3955 5.4024 5.4061 5.4182
  5.4205 5.422  5.4298 5.4311 5.4368 5.4421 5.4492 5.4507 5.451  5.4559
- 5.456  5.4564 5.4572 5.4578 5.4668 5.4763 5.4815 5.4829 5.5027 5.5032
+ 5.4559 5.4564 5.4572 5.4578 5.4668 5.4763 5.4815 5.4829 5.5027 5.5032
  5.5076 5.5106 5.5128 5.513  5.5215 5.5233 5.5234 5.5244 5.5269 5.5293
  5.5299 5.5305 5.5341 5.5353 5.5379 5.5398 5.5499 5.5544 5.5557 5.5578
  5.5603 5.5614 5.5639 5.564  5.564  5.5683 5.5689 5.5702 5.5748 5.5749
@@ -22310,7 +22310,7 @@
           <t>[5.9988 6.0028 6.0086 6.0218 6.0818 6.1155 6.1327 6.1382 6.1465 6.1697
  6.1976 6.2005 6.2038 6.2046 6.211  6.2189 6.2236 6.2415 6.2433 6.2508
  6.2534 6.2552 6.2572 6.2593 6.2636 6.2713 6.2758 6.2909 6.2935 6.302
- 6.3068 6.3102 6.3168 6.3177 6.3195 6.3218 6.3272 6.3278 6.328  6.3302
+ 6.3069 6.3102 6.3168 6.3177 6.3195 6.3218 6.3272 6.3278 6.328  6.3302
  6.3315 6.3355 6.3363 6.3401 6.3479 6.3488 6.3493 6.3542 6.3561 6.3562
  6.3579 6.3588 6.3593 6.3594 6.3603 6.3612 6.363  6.3654 6.3694 6.3696
  6.3709 6.3748 6.3758 6.3759 6.3825 6.3828 6.3867 6.3879 6.3882 6.389
@@ -22587,7 +22587,7 @@
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>[5.4922 5.5461 5.6287 5.6435 5.679  5.7117 5.7244 5.7574 5.77   5.7786
+          <t>[5.4922 5.5461 5.6287 5.6435 5.6789 5.7117 5.7244 5.7574 5.77   5.7786
  5.7788 5.7943 5.7957 5.8002 5.8166 5.8297 5.842  5.8489 5.8596 5.8609
  5.8625 5.88   5.8806 5.8808 5.8823 5.8839 5.885  5.8874 5.888  5.8881
  5.8903 5.9024 5.9025 5.9028 5.9087 5.9193 5.9214 5.9275 5.9289 5.9327
@@ -22663,7 +22663,7 @@
  5.2526 5.2536 5.2542 5.2595 5.2602 5.2602 5.2657 5.2687 5.2705 5.2723
  5.2727 5.2732 5.2768 5.2785 5.282  5.2899 5.2906 5.2928 5.2959 5.2964
  5.2965 5.2965 5.2975 5.2981 5.2984 5.299  5.3029 5.3048 5.3049 5.3061
- 5.3082 5.3094 5.3133 5.315  5.3152 5.3172 5.318  5.3204 5.3219 5.3224
+ 5.3082 5.3095 5.3133 5.315  5.3152 5.3172 5.318  5.3204 5.3219 5.3224
  5.3237 5.3271 5.3295 5.3306 5.3324 5.3329 5.3358 5.3365 5.337  5.3377
  5.3393 5.3404 5.3404 5.3417 5.3492 5.3512 5.3522 5.3528 5.3543 5.3544
  5.3572 5.3602 5.3605 5.3608 5.3617 5.363  5.3642 5.3643 5.3657 5.3657]</t>
@@ -22976,7 +22976,7 @@
  4.5149 4.5389 4.5413 4.5854 4.5943 4.6221 4.6319 4.6332 4.6695 4.6736
  4.698  4.6996 4.7085 4.7139 4.7144 4.7189 4.7212 4.7246 4.7328 4.7345
  4.7414 4.7442 4.7468 4.7506 4.7536 4.7544 4.7633 4.7657 4.769  4.7731
- 4.778  4.7808 4.7836 4.789  4.7891 4.7896 4.7919 4.7923 4.7947 4.8021
+ 4.7781 4.7808 4.7836 4.789  4.7891 4.7896 4.7919 4.7923 4.7947 4.8021
  4.8039 4.805  4.8081 4.8086 4.8108 4.8173 4.8181 4.8186 4.8204 4.8231
  4.8239 4.8243 4.8272 4.8301 4.8308 4.8317 4.833  4.8339 4.8364 4.84
  4.8451 4.8514 4.852  4.8526 4.8556 4.8577 4.8585 4.8596 4.8609 4.8651
@@ -23293,7 +23293,7 @@
  4.5025 4.5039 4.5043 4.5085 4.5169 4.5215 4.5308 4.5324 4.5439 4.5487
  4.5883 4.5887 4.5897 4.5922 4.5936 4.5941 4.5982 4.5999 4.6002 4.6053
  4.6097 4.6105 4.6163 4.6163 4.6182 4.6195 4.6205 4.6329 4.6372 4.6412
- 4.6515 4.6737 4.6739 4.6766 4.6779 4.6809 4.6827 4.6831 4.6857 4.6874
+ 4.6515 4.6737 4.6739 4.6766 4.6779 4.6808 4.6827 4.6831 4.6857 4.6874
  4.69   4.6905 4.6924 4.6956 4.6978 4.6985 4.7    4.7038 4.7039 4.7116
  4.7154 4.7197 4.7221 4.7231 4.7261 4.7303 4.7323 4.736  4.7374 4.7383
  4.7448 4.7464 4.7469 4.7471 4.7522 4.7528 4.7577 4.7581 4.7602 4.7605]</t>
@@ -23559,7 +23559,7 @@
   331488  649329  117399   14574  492029  935974  758652  355083  899133
   417163  242821  527509  677479  509048  237025 1053684   54632  280535
   667413 1116559  763060  458790  855018   53013  102639  969021  579107
- 1005954  573208  556262  152112  308018  359421   78727  708248  670729
+ 1005954  573208  556262  308018  152112  359421   78727  708248  670729
   158708  120094 1080833  678966  337030  829504  796671  972552  743117
   501356  264724  191767  620681  833279  595249  865809  249972  270316
   421613]</t>
@@ -23569,12 +23569,12 @@
         <is>
           <t>[7.4697 7.7032 7.7521 7.7678 7.9101 8.0724 8.08   8.1171 8.1173 8.1535
  8.1826 8.2456 8.2496 8.2754 8.2802 8.2822 8.2975 8.3013 8.3063 8.317
- 8.3361 8.3459 8.3556 8.3813 8.3819 8.3873 8.3903 8.4035 8.4198 8.4225
+ 8.3361 8.3459 8.3556 8.3813 8.3819 8.3874 8.3903 8.4035 8.4198 8.4225
  8.4284 8.4413 8.4424 8.4433 8.4492 8.4501 8.4525 8.4543 8.4572 8.463
  8.467  8.4675 8.473  8.4748 8.4778 8.4806 8.4814 8.4826 8.4869 8.4993
  8.5025 8.504  8.5089 8.5093 8.5106 8.5121 8.5122 8.5145 8.5164 8.5174
  8.519  8.5195 8.5253 8.5253 8.532  8.5324 8.5412 8.542  8.5443 8.5482
- 8.549  8.5532 8.5548 8.557  8.5623 8.5624 8.5624 8.5636 8.5655 8.5659
+ 8.5491 8.5532 8.5548 8.557  8.5623 8.5624 8.5624 8.5636 8.5655 8.5659
  8.5714 8.5715 8.5768 8.5783 8.579  8.581  8.5825 8.5848 8.5863 8.5875
  8.5878 8.588  8.5896 8.5896 8.5911 8.5934 8.5934 8.5935 8.5945 8.597 ]</t>
         </is>
@@ -23993,7 +23993,7 @@
  4.2608 4.2614 4.2618 4.2631 4.2712 4.2762 4.2792 4.28   4.2825 4.2855
  4.2944 4.2995 4.3042 4.3065 4.3068 4.3089 4.3093 4.3205 4.3208 4.3235
  4.3236 4.3237 4.3252 4.3253 4.3259 4.3276 4.3296 4.3309 4.3333 4.3344
- 4.3398 4.34   4.3402 4.341  4.3418 4.3427 4.3433 4.3434 4.3454 4.3465
+ 4.3398 4.34   4.3402 4.341  4.3418 4.3427 4.3433 4.3434 4.3453 4.3465
  4.3485 4.3499 4.3505 4.3596 4.364  4.3643 4.3644 4.3648 4.3659 4.3677
  4.3685 4.3695 4.3696 4.3702 4.3706 4.3713 4.3718 4.3749 4.3751 4.3758
  4.3775 4.3798 4.3816 4.3822 4.3832 4.3837 4.3867 4.3877 4.3888 4.3898]</t>
@@ -24133,7 +24133,7 @@
  6.3695 6.3702 6.3728 6.3751 6.3767 6.3786 6.3811 6.3859 6.3877 6.3883
  6.3895 6.3956 6.3976 6.4    6.4001 6.4002 6.4007 6.4019 6.4021 6.4095
  6.4104 6.4112 6.4122 6.4136 6.4162 6.4175 6.4237 6.4293 6.4302 6.4312
- 6.4364 6.4364 6.4367 6.4375 6.4387 6.4405 6.4411 6.4416 6.4422 6.4433
+ 6.4364 6.4364 6.4367 6.4376 6.4387 6.4405 6.4411 6.4416 6.4422 6.4433
  6.4437 6.4441 6.4443 6.4443 6.4454 6.4459 6.4463 6.4467 6.4467 6.4469
  6.4473 6.4482 6.4492 6.452  6.4539 6.4556 6.4571 6.4582 6.4586 6.4593
  6.4609 6.4626 6.4633 6.4634 6.4641 6.4645 6.4647 6.4659 6.4669 6.4683]</t>
@@ -24481,7 +24481,7 @@
  5.6298 5.6325 5.6353 5.6523 5.6758 5.6821 5.6843 5.69   5.6926 5.6931
  5.7041 5.7783 5.7835 5.7836 5.7881 5.7891 5.7962 5.7994 5.8038 5.8084
  5.831  5.8364 5.8442 5.8494 5.8553 5.8598 5.8669 5.8727 5.8746 5.8753
- 5.8755 5.8811 5.8831 5.8889 5.8931 5.8967 5.8997 5.905  5.9069 5.9154
+ 5.8755 5.8811 5.8832 5.8889 5.8931 5.8967 5.8997 5.905  5.9069 5.9154
  5.9174 5.9202 5.9238 5.9238 5.9248 5.9298 5.9329 5.9349 5.9353 5.9396
  5.942  5.9433 5.95   5.9533 5.9554 5.9557 5.9589 5.9603 5.9622 5.9634
  5.9641 5.9645 5.9646 5.9654 5.9656 5.9676 5.9684 5.9708 5.9771 5.9806
@@ -24761,7 +24761,7 @@
  4.9985 5.0029 5.0037 5.0063 5.013  5.0194 5.0225 5.0512 5.0522 5.0625
  5.0702 5.0737 5.1061 5.1078 5.1093 5.1096 5.1097 5.1129 5.1138 5.1205
  5.1329 5.1344 5.1453 5.1468 5.1494 5.1564 5.1609 5.1617 5.1714 5.1729
- 5.1736 5.1768 5.1805 5.1807 5.1855 5.1871 5.192  5.1952 5.1958 5.1969
+ 5.1736 5.1768 5.1805 5.1807 5.1856 5.1871 5.192  5.1952 5.1958 5.1969
  5.1975 5.1998 5.2022 5.2032 5.2059 5.2083 5.2237 5.2239 5.2287 5.2291
  5.2322 5.2357 5.2367 5.237  5.2382 5.2403 5.2406 5.2423 5.2435 5.2504
  5.2512 5.2524 5.2551 5.2552 5.2558 5.2569 5.2592 5.2652 5.2679 5.2691
@@ -24831,7 +24831,7 @@
  5.1324 5.1338 5.1386 5.1402 5.1545 5.1566 5.1577 5.1619 5.1629 5.1635
  5.1645 5.1674 5.1709 5.172  5.1739 5.1768 5.18   5.1914 5.1917 5.1919
  5.1935 5.1986 5.2046 5.2056 5.2065 5.2104 5.2145 5.2166 5.2169 5.2169
- 5.2172 5.2259 5.2295 5.2309 5.2313 5.2353 5.2358 5.237  5.238  5.243
+ 5.2172 5.2259 5.2295 5.2309 5.2314 5.2353 5.2358 5.237  5.238  5.243
  5.2462 5.2468 5.2489 5.2494 5.2513 5.2517 5.2527 5.2531 5.2533 5.2535
  5.2537 5.2546 5.2548 5.2571 5.2588 5.2593 5.2622 5.2628 5.2634 5.2636
  5.2642 5.2643 5.2663 5.2663 5.2672 5.2673 5.269  5.2691 5.2712 5.2717
@@ -25040,7 +25040,7 @@
           <t>[4.3471 4.433  4.4506 4.4566 4.4826 4.4931 4.5066 4.5123 4.5182 4.5402
  4.558  4.5595 4.5635 4.5646 4.5689 4.5751 4.5776 4.5788 4.5801 4.5822
  4.5852 4.5853 4.5893 4.5912 4.5947 4.5956 4.6042 4.606  4.6128 4.6185
- 4.6186 4.6206 4.6223 4.6226 4.6264 4.628  4.6327 4.6327 4.6378 4.6398
+ 4.6186 4.6206 4.6223 4.6226 4.6264 4.628  4.6326 4.6327 4.6378 4.6398
  4.6435 4.6439 4.6459 4.65   4.65   4.6513 4.6591 4.6595 4.6606 4.6611
  4.6616 4.6617 4.6617 4.6627 4.6649 4.6661 4.6684 4.6688 4.669  4.6693
  4.67   4.6703 4.6705 4.6726 4.6733 4.677  4.6789 4.6793 4.6816 4.682
@@ -25149,7 +25149,7 @@
  6.0513 6.0528 6.0528 6.0534 6.0549 6.0567 6.0585 6.0648 6.0649 6.0652
  6.0661 6.0738 6.0742 6.0763 6.0775 6.0832 6.0847 6.0865 6.0881 6.0896
  6.0899 6.0927 6.0948 6.0961 6.0967 6.0976 6.0979 6.0988 6.1006 6.102
- 6.1021 6.1027 6.1034 6.1068 6.1069 6.108  6.1085 6.1096 6.1109 6.1113
+ 6.1021 6.1027 6.1034 6.1068 6.1069 6.108  6.1085 6.1096 6.1108 6.1113
  6.1152 6.1155 6.1156 6.1181 6.1197 6.1204 6.1209 6.122  6.1246 6.1249
  6.1258 6.1259 6.1262 6.1283 6.1286 6.1293 6.1298 6.1299 6.1302 6.1307]</t>
         </is>
@@ -25183,7 +25183,7 @@
  5.3758 5.3808 5.386  5.3917 5.3919 5.394  5.404  5.4094 5.4142 5.4146
  5.4158 5.4168 5.4191 5.4199 5.4203 5.4207 5.4238 5.4261 5.4262 5.4267
  5.4269 5.4318 5.4338 5.4377 5.4383 5.441  5.4413 5.4416 5.4434 5.4453
- 5.4482 5.4495 5.4497 5.4525 5.4528 5.4533 5.4581 5.4591 5.4633 5.4698
+ 5.4482 5.4495 5.4497 5.4525 5.4528 5.4533 5.4581 5.459  5.4633 5.4698
  5.4717 5.4725 5.4742 5.4767 5.4767 5.4783 5.4793 5.4793 5.48   5.4814
  5.4822 5.4822 5.483  5.4834 5.4839 5.4865 5.4871 5.4873 5.4879 5.4884
  5.4884 5.4885 5.4919 5.4924 5.4928 5.4952 5.4987 5.4992 5.5    5.5019]</t>
@@ -25216,9 +25216,9 @@
  2.9004 2.9161 2.925  2.9254 2.9261 2.9352 2.9359 2.9497 2.9507 2.9561
  2.9582 2.9614 2.9623 2.9656 2.9708 2.9712 2.977  2.9817 2.9936 2.9941
  2.9946 3.0004 3.0033 3.0081 3.014  3.0147 3.0202 3.022  3.0286 3.0319
- 3.0319 3.0338 3.0346 3.0347 3.0382 3.0383 3.0402 3.0417 3.0436 3.0443
+ 3.0319 3.0338 3.0346 3.0346 3.0382 3.0383 3.0402 3.0417 3.0436 3.0443
  3.0468 3.0539 3.058  3.0599 3.0602 3.0615 3.062  3.0643 3.0678 3.07
- 3.0724 3.0749 3.0805 3.0826 3.0827 3.0847 3.0864 3.0892 3.0913 3.0939
+ 3.0724 3.0749 3.0805 3.0826 3.0827 3.0846 3.0864 3.0892 3.0913 3.0939
  3.0946 3.0952 3.0983 3.1014 3.1016 3.1037 3.1045 3.1074 3.1082 3.1089
  3.1137 3.1137 3.1157 3.1181 3.1197 3.1221 3.1256 3.1269 3.1272 3.1272
  3.1275 3.1304 3.1326 3.1341 3.1343 3.137  3.1372 3.1391 3.1421 3.1431]</t>
@@ -25496,7 +25496,7 @@
  3.7383 3.7465 3.7486 3.7523 3.7908 3.7958 3.8004 3.825  3.8351 3.8385
  3.8398 3.8425 3.8445 3.8537 3.8542 3.8591 3.8664 3.8765 3.8783 3.8812
  3.888  3.8912 3.8938 3.8944 3.9021 3.9022 3.9031 3.9034 3.9046 3.9052
- 3.9062 3.9062 3.9111 3.9137 3.9164 3.9169 3.9172 3.922  3.9222 3.9225
+ 3.9061 3.9062 3.9111 3.9137 3.9164 3.9169 3.9172 3.922  3.9222 3.9225
  3.9232 3.9279 3.931  3.9392 3.9438 3.9461 3.949  3.9494 3.9504 3.9521
  3.9522 3.9567 3.9588 3.9597 3.9615 3.963  3.9672 3.9685 3.9685 3.9703
  3.9732 3.9741 3.9795 3.98   3.981  3.9823 3.9856 3.986  3.988  3.9885
@@ -25566,7 +25566,7 @@
  4.0118 4.0143 4.0157 4.036  4.0437 4.0703 4.0774 4.0837 4.0847 4.0937
  4.0983 4.1099 4.111  4.1115 4.1237 4.1303 4.1316 4.1322 4.1381 4.1388
  4.1509 4.1519 4.155  4.1565 4.1591 4.1604 4.1627 4.1669 4.1676 4.1678
- 4.1688 4.1705 4.185  4.1893 4.1933 4.1941 4.1967 4.2007 4.2052 4.2102
+ 4.1688 4.1705 4.185  4.1893 4.1933 4.194  4.1967 4.2007 4.2052 4.2102
  4.2118 4.213  4.2163 4.2174 4.2176 4.2249 4.2283 4.2312 4.2332 4.2386
  4.2394 4.2405 4.2439 4.2442 4.2481 4.2522 4.2523 4.2538 4.2555 4.258
  4.2597 4.2608 4.2663 4.2798 4.2856 4.2919 4.292  4.2952 4.2966 4.2966
@@ -25708,7 +25708,7 @@
  8.0376 8.038  8.0395 8.0417 8.0421 8.0434 8.0465 8.0608 8.0627 8.063
  8.0655 8.0662 8.0667 8.0675 8.0675 8.0683 8.0733 8.0755 8.076  8.0764
  8.081  8.0835 8.0929 8.0981 8.1011 8.1017 8.1019 8.1029 8.1081 8.1146
- 8.1152 8.1159 8.1177 8.1197 8.1202 8.122  8.123  8.1238 8.1247 8.1249
+ 8.1151 8.1159 8.1177 8.1197 8.1202 8.122  8.123  8.1238 8.1247 8.1249
  8.1251 8.1268 8.1289 8.1307 8.1319 8.134  8.1342 8.1376 8.1407 8.1427
  8.1446 8.1464 8.1477 8.1489 8.1501 8.152  8.1522 8.1536 8.1565 8.1566
  8.1577 8.1605 8.1628 8.1645 8.1646 8.1646 8.1691 8.1705 8.1709 8.1745]</t>
@@ -25921,7 +25921,7 @@
  6.4254 6.4274 6.4291 6.4308 6.437  6.4452 6.446  6.4464 6.4489 6.4518
  6.4535 6.4553 6.4565 6.4568 6.4571 6.4578 6.4597 6.4611 6.4619 6.4671
  6.4722 6.474  6.4745 6.4752 6.4761 6.477  6.4779 6.4807 6.4869 6.4922
- 6.4937 6.4942 6.4943 6.4975 6.5037 6.5065 6.5068 6.5156 6.5168 6.5171]</t>
+ 6.4937 6.4942 6.4943 6.4974 6.5037 6.5065 6.5068 6.5156 6.5168 6.5171]</t>
         </is>
       </c>
     </row>
@@ -26023,7 +26023,7 @@
  5.2002 5.2026 5.2032 5.2084 5.2088 5.213  5.2189 5.2236 5.2237 5.2256
  5.2301 5.2313 5.2323 5.2385 5.2407 5.2431 5.2434 5.2461 5.2464 5.2479
  5.2495 5.2547 5.258  5.2597 5.2662 5.2664 5.2683 5.2759 5.2809 5.2812
- 5.2839 5.284  5.2856 5.286  5.2867 5.2875 5.2896 5.29   5.2907 5.2924
+ 5.2839 5.284  5.2857 5.286  5.2867 5.2875 5.2896 5.29   5.2907 5.2924
  5.2934 5.294  5.2942 5.296  5.2969 5.2975 5.2982 5.2983 5.3007 5.3019
  5.3024 5.3025 5.3033 5.3041 5.3043 5.3045 5.3048 5.3056 5.3064 5.3065
  5.3069 5.3084 5.3089 5.3099 5.3108 5.3123 5.313  5.315  5.316  5.3172]</t>
@@ -26688,7 +26688,7 @@
  4.1396 4.1462 4.1522 4.1539 4.156  4.1567 4.1591 4.1674 4.1693 4.1791
  4.1822 4.1873 4.1901 4.1937 4.197  4.1994 4.204  4.2043 4.2064 4.2184
  4.2195 4.2214 4.2229 4.2236 4.2268 4.2291 4.2367 4.2436 4.2455 4.2492
- 4.2493 4.2572 4.2608 4.2616 4.2617 4.2636 4.2638 4.2662 4.2663 4.2722
+ 4.2493 4.2572 4.2608 4.2616 4.2617 4.2636 4.2638 4.2662 4.2663 4.2723
  4.2738 4.2817 4.2825 4.283  4.2831 4.284  4.2884 4.2914 4.2917 4.2932
  4.2936 4.3015 4.3019 4.302  4.3021 4.3034 4.3055 4.3081 4.3081 4.3105
  4.3112 4.312  4.3152 4.3173 4.318  4.3225 4.3258 4.3268 4.3273 4.3276]</t>
@@ -26718,7 +26718,7 @@
       <c r="C752" t="inlineStr">
         <is>
           <t>[5.9145 6.1071 6.1172 6.133  6.1389 6.1973 6.2033 6.2172 6.2191 6.2298
- 6.2389 6.2551 6.2591 6.261  6.2621 6.2625 6.2885 6.3021 6.3166 6.3175
+ 6.239  6.2551 6.2591 6.261  6.2621 6.2625 6.2885 6.3021 6.3166 6.3175
  6.3346 6.3376 6.3404 6.3425 6.3436 6.3563 6.3582 6.3597 6.364  6.3737
  6.3765 6.3768 6.3833 6.386  6.3881 6.3924 6.399  6.4005 6.4011 6.4073
  6.4129 6.418  6.4195 6.439  6.4423 6.4427 6.4478 6.4486 6.4594 6.4599
@@ -26827,7 +26827,7 @@
  4.7213 4.7252 4.7306 4.7347 4.7494 4.7513 4.757  4.7577 4.76   4.7607
  4.766  4.7701 4.7725 4.776  4.7766 4.7809 4.7827 4.7835 4.7835 4.7894
  4.7895 4.79   4.7942 4.7979 4.799  4.8018 4.8025 4.8044 4.8108 4.813
- 4.8144 4.8148 4.8165 4.8168 4.8171 4.8206 4.8207 4.8217 4.8252 4.8256
+ 4.8144 4.8148 4.8165 4.8168 4.8171 4.8206 4.8207 4.8216 4.8252 4.8256
  4.8257 4.8273 4.8296 4.8305 4.8307 4.8314 4.8321 4.8336 4.834  4.8359
  4.8364 4.8382 4.846  4.8471 4.85   4.8504 4.854  4.8576 4.8594 4.8598
  4.8609 4.861  4.8625 4.8633 4.8635 4.8645 4.8651 4.8652 4.8667 4.8677
@@ -27281,7 +27281,7 @@
  5.7233 5.7304 5.744  5.7466 5.7502 5.7616 5.7664 5.7717 5.7769 5.7818
  5.7904 5.7936 5.8065 5.817  5.8194 5.8266 5.8319 5.8421 5.845  5.8491
  5.8517 5.8549 5.8549 5.8579 5.864  5.8722 5.8751 5.876  5.8783 5.8786
- 5.8805 5.8825 5.8841 5.8854 5.8862 5.887  5.8881 5.8882 5.8886 5.894
+ 5.8805 5.8825 5.8841 5.8854 5.8861 5.887  5.8881 5.8882 5.8886 5.894
  5.894  5.8941 5.8944 5.8964 5.8968 5.8969 5.8977 5.8987 5.8989 5.8991
  5.8999 5.9048 5.9102 5.9109 5.9122 5.9125 5.9132 5.9158 5.9161 5.9167
  5.9171 5.9175 5.9186 5.9188 5.919  5.9203 5.921  5.9255 5.9256 5.9268
@@ -28400,7 +28400,7 @@
           <t>[4.6002 4.6257 4.6318 4.7184 4.8033 5.0892 5.1153 5.1303 5.1373 5.1417
  5.1486 5.1593 5.2295 5.2533 5.2538 5.2582 5.2606 5.2675 5.2929 5.2975
  5.3    5.3036 5.3222 5.3252 5.3263 5.3292 5.3308 5.3447 5.3459 5.3661
- 5.3736 5.3767 5.3804 5.3816 5.3853 5.391  5.3911 5.3929 5.3961 5.398
+ 5.3736 5.3767 5.3804 5.3816 5.3853 5.3911 5.3911 5.3929 5.3961 5.398
  5.3995 5.4029 5.4047 5.4056 5.4119 5.4147 5.4147 5.415  5.4182 5.4289
  5.4402 5.4403 5.4457 5.4482 5.4511 5.4561 5.4601 5.4606 5.4674 5.4697
  5.4808 5.4811 5.4829 5.4829 5.4833 5.4934 5.494  5.4965 5.4988 5.5021
@@ -28783,10 +28783,10 @@
       <c r="C811" t="inlineStr">
         <is>
           <t>[6.8425 6.9993 7.0016 7.0502 7.0512 7.0537 7.06   7.0804 7.086  7.0881
- 7.0881 7.102  7.1074 7.1108 7.1129 7.128  7.1359 7.1375 7.1432 7.148
+ 7.0881 7.102  7.1074 7.1107 7.1129 7.128  7.1359 7.1375 7.1432 7.148
  7.1538 7.1562 7.1588 7.1695 7.1697 7.1723 7.1806 7.1875 7.1886 7.1947
  7.1984 7.2001 7.2012 7.2017 7.2034 7.2035 7.2044 7.2053 7.2079 7.212
- 7.2166 7.2172 7.2208 7.2211 7.2239 7.2263 7.2281 7.2283 7.2284 7.2308
+ 7.2166 7.2172 7.2208 7.2211 7.2239 7.2263 7.2281 7.2284 7.2284 7.2308
  7.234  7.2394 7.24   7.2402 7.2404 7.2432 7.2437 7.2492 7.2492 7.253
  7.2532 7.2552 7.2566 7.2569 7.2575 7.2591 7.264  7.2665 7.2689 7.2705
  7.2707 7.2707 7.2721 7.2771 7.2845 7.286  7.2877 7.2882 7.2897 7.2906
@@ -28825,7 +28825,7 @@
  5.5456 5.5467 5.5496 5.5544 5.5548 5.5558 5.5565 5.5575 5.5575 5.5586
  5.5597 5.5598 5.56   5.5606 5.5629 5.5645 5.5665 5.5685 5.5687 5.5697
  5.5702 5.5715 5.5727 5.5738 5.5751 5.5773 5.5807 5.5814 5.5817 5.582
- 5.5827 5.5867 5.5885 5.5893 5.5895 5.5903 5.5905 5.5915 5.5936 5.5938
+ 5.5827 5.5867 5.5885 5.5893 5.5895 5.5903 5.5905 5.5915 5.5936 5.5937
  5.5947 5.5957 5.5984 5.5986 5.599  5.6001 5.6001 5.6003 5.6009 5.6013]</t>
         </is>
       </c>
@@ -28858,7 +28858,7 @@
  5.6877 5.6884 5.6889 5.6901 5.6957 5.6964 5.6976 5.7022 5.7022 5.7048
  5.7056 5.7099 5.714  5.7147 5.7151 5.7159 5.7188 5.722  5.723  5.7278
  5.7322 5.7323 5.7367 5.7416 5.7423 5.7431 5.7463 5.7465 5.7479 5.7504
- 5.7514 5.7526 5.7538 5.7588 5.759  5.7598 5.7614 5.7622 5.7628 5.7642
+ 5.7514 5.7526 5.7538 5.7588 5.759  5.7598 5.7614 5.7623 5.7628 5.7642
  5.7643 5.767  5.7673 5.7746 5.7752 5.7758 5.7775 5.7778 5.7801 5.7817
  5.7825 5.7829 5.7831 5.7837 5.7839 5.7856 5.7872 5.7935 5.7938 5.795
  5.7956 5.7987 5.7995 5.8035 5.8051 5.8054 5.8057 5.8057 5.8065 5.8082]</t>
@@ -29069,7 +29069,7 @@
  5.2297 5.2347 5.2351 5.2392 5.2423 5.2492 5.2499 5.2512 5.2516 5.2531
  5.2533 5.254  5.2541 5.2548 5.2557 5.2568 5.2575 5.261  5.2622 5.2629
  5.2648 5.2684 5.2707 5.2717 5.2765 5.277  5.2773 5.2774 5.2779 5.2806
- 5.2808 5.2826 5.286  5.2894 5.2924 5.2936 5.296  5.296  5.2975 5.3027
+ 5.2808 5.2826 5.286  5.2894 5.2924 5.2935 5.296  5.296  5.2975 5.3027
  5.3032 5.3034 5.3044 5.3055 5.3059 5.3065 5.307  5.3073 5.3082 5.3087
  5.3087 5.3109 5.311  5.311  5.3112 5.3115 5.3145 5.3149 5.3171 5.3182]</t>
         </is>
@@ -29173,7 +29173,7 @@
  3.4486 3.4527 3.4548 3.4563 3.4572 3.46   3.4639 3.4689 3.471  3.4712
  3.4741 3.4783 3.4785 3.4795 3.484  3.486  3.486  3.4861 3.4874 3.4916
  3.4924 3.4926 3.4938 3.4945 3.4947 3.5008 3.506  3.5081 3.5097 3.5102
- 3.5106 3.5128 3.5151 3.5151 3.5152 3.5205 3.5227 3.5236 3.5241 3.5248
+ 3.5105 3.5128 3.5151 3.5151 3.5152 3.5205 3.5227 3.5236 3.5241 3.5248
  3.5272 3.5324 3.5397 3.5404 3.5413 3.542  3.5421 3.5424 3.5429 3.5432
  3.5435 3.551  3.552  3.5537 3.5561 3.5569 3.5589 3.5593 3.5598 3.5624
  3.5628 3.5632 3.5656 3.5658 3.5665 3.5676 3.57   3.5723 3.5752 3.577 ]</t>
@@ -29555,7 +29555,7 @@
           <t>[4.6467 4.6972 4.7367 4.7396 4.7497 4.7745 4.7767 4.7803 4.7966 4.7973
  4.8039 4.8116 4.8147 4.8177 4.8177 4.8267 4.8302 4.8346 4.8355 4.8395
  4.8407 4.8426 4.8453 4.8478 4.8507 4.8543 4.8565 4.8586 4.8605 4.8614
- 4.8629 4.8646 4.8663 4.8671 4.8701 4.8712 4.874  4.8761 4.8771 4.8784
+ 4.8629 4.8646 4.8663 4.8671 4.8701 4.8712 4.874  4.8761 4.8771 4.8785
  4.8798 4.881  4.8821 4.8832 4.885  4.8862 4.8869 4.8879 4.8883 4.8924
  4.8932 4.8945 4.896  4.896  4.8994 4.9002 4.9006 4.9028 4.9035 4.9041
  4.9049 4.9058 4.906  4.9077 4.9084 4.9095 4.9096 4.9101 4.9102 4.9108
@@ -29944,7 +29944,7 @@
  4.164  4.1644 4.1657 4.1677 4.1738 4.1763 4.1779 4.1794 4.1801 4.1893
  4.1896 4.192  4.1947 4.1949 4.1998 4.2039 4.2057 4.2066 4.207  4.2144
  4.2164 4.2312 4.2326 4.2327 4.2372 4.2408 4.2417 4.2424 4.243  4.2498
- 4.2524 4.2528 4.2535 4.2551 4.2553 4.2555 4.2559 4.256  4.2562 4.2591
+ 4.2523 4.2528 4.2535 4.2551 4.2553 4.2555 4.2559 4.256  4.2562 4.2591
  4.2651 4.2657 4.2666 4.2683 4.2707 4.2758 4.276  4.2812 4.2828 4.2834
  4.2853 4.2865 4.2865 4.2868 4.288  4.2881 4.2902 4.2905 4.2924 4.2937]</t>
         </is>
@@ -30066,7 +30066,7 @@
   877397  520582   49727   37825  990755 1151058  567870  796656  995876
   442035  757064  774783  770654 1084129 1032624  747230  714500  999795
   129322  816343   51201  780738  577471  553449 1110858  656508  797774
- 1162869  319298  240732  749396  543784   91247  800698   88140  498644
+ 1162869  319298  240732  749396  543784   91247  800698  498644   88140
  1041155  146753   63583  187921  950149  281419  965488  961008  499071
   125467  414302 1119031  113669 1047912  282470  834977  115039 1182110
    58545  128021  372368 1052549  639879  257410  585927 1073182 1036616
@@ -30117,7 +30117,7 @@
  5.1976 5.2162 5.2268 5.2268 5.2339 5.2415 5.2517 5.2519 5.2614 5.2679
  5.2715 5.2783 5.2792 5.2833 5.2899 5.2919 5.2937 5.2956 5.297  5.2974
  5.3012 5.3056 5.308  5.3169 5.3178 5.3203 5.3235 5.3273 5.328  5.3287
- 5.3371 5.3375 5.339  5.3396 5.3398 5.3401 5.3401 5.3444 5.3521 5.3557
+ 5.3371 5.3375 5.3391 5.3396 5.3398 5.3401 5.3401 5.3444 5.3521 5.3557
  5.3607 5.3613 5.3637 5.3684 5.3698 5.3709 5.3723 5.3738 5.3782 5.3785
  5.38   5.3883 5.3898 5.395  5.398  5.3982 5.4018 5.4023 5.405  5.4074
  5.4091 5.4115 5.4141 5.4159 5.42   5.4206 5.4219 5.4282 5.4284 5.4287
@@ -30183,7 +30183,7 @@
       <c r="C851" t="inlineStr">
         <is>
           <t>[ 9.9816 10.4804 10.5413 10.6391 10.6623 10.7019 10.7135 10.7201 10.7611
- 10.7894 10.7948 10.7976 10.7989 10.8074 10.8258 10.8323 10.8351 10.8375
+ 10.7894 10.7948 10.7976 10.7989 10.8074 10.8258 10.8323 10.8351 10.8376
  10.838  10.8456 10.8536 10.8595 10.8648 10.8841 10.8857 10.8931 10.8949
  10.9151 10.9176 10.9223 10.9255 10.9295 10.932  10.9364 10.9373 10.9408
  10.9449 10.9457 10.9487 10.9589 10.9646 10.9655 10.9668 10.9873 10.9888
@@ -30604,7 +30604,7 @@
       </c>
       <c r="C863" t="inlineStr">
         <is>
-          <t>[4.9706 4.9928 4.9969 5.0081 5.0095 5.0165 5.0304 5.0314 5.0319 5.0494
+          <t>[4.9706 4.9927 4.9969 5.0081 5.0095 5.0165 5.0304 5.0314 5.0319 5.0494
  5.0813 5.0825 5.0915 5.0976 5.101  5.1115 5.1228 5.1314 5.1422 5.1471
  5.1482 5.1503 5.1551 5.1759 5.1882 5.1922 5.1966 5.1978 5.199  5.1999
  5.2006 5.2015 5.2058 5.207  5.2077 5.2137 5.2171 5.2172 5.2189 5.225
@@ -31068,7 +31068,7 @@
  6.0523 6.0546 6.0552 6.0576 6.0577 6.0601 6.0608 6.0611 6.0621 6.0623
  6.0654 6.0655 6.0676 6.0676 6.0679 6.0689 6.0702 6.0709 6.0741 6.0745
  6.078  6.0794 6.0796 6.0802 6.0806 6.0812 6.0815 6.0821 6.0826 6.0827
- 6.0838 6.0843 6.086  6.0892 6.0899 6.0928 6.093  6.0932 6.0934 6.0943]</t>
+ 6.0838 6.0843 6.086  6.0892 6.0899 6.0928 6.0931 6.0932 6.0934 6.0943]</t>
         </is>
       </c>
     </row>
@@ -31130,7 +31130,7 @@
       <c r="C878" t="inlineStr">
         <is>
           <t>[2.675  2.8122 2.8351 2.8686 2.8788 2.8874 2.9023 2.9398 2.9548 2.9687
- 2.9718 2.9791 2.9917 2.9923 3.0198 3.02   3.0244 3.0346 3.0432 3.0447
+ 2.9718 2.9792 2.9917 2.9923 3.0198 3.02   3.0244 3.0346 3.0432 3.0447
  3.0499 3.0531 3.0549 3.0566 3.0698 3.0754 3.077  3.0856 3.0889 3.0911
  3.0915 3.0929 3.1048 3.1078 3.113  3.1161 3.1164 3.1243 3.1248 3.1258
  3.1278 3.1343 3.1445 3.1466 3.1472 3.153  3.1545 3.1551 3.1565 3.1579
@@ -31346,7 +31346,7 @@
  5.083  5.0836 5.0923 5.0928 5.0943 5.0948 5.0966 5.103  5.1033 5.1045
  5.108  5.112  5.1133 5.1161 5.1195 5.1213 5.1249 5.1252 5.1259 5.1282
  5.1321 5.1327 5.1356 5.1368 5.1374 5.1404 5.1432 5.145  5.1459 5.1484
- 5.1523 5.1528 5.153  5.1541 5.1545 5.1548 5.1575 5.1576 5.1588 5.1597
+ 5.1523 5.1528 5.153  5.1542 5.1545 5.1548 5.1575 5.1576 5.1588 5.1597
  5.1615 5.1619 5.1622 5.1624 5.1626 5.163  5.163  5.1644 5.1647 5.1652
  5.1679 5.1687 5.1733 5.1775 5.1782 5.179  5.1804 5.1812 5.1829 5.1849]</t>
         </is>
@@ -31447,7 +31447,7 @@
           <t>[5.5494 5.6004 5.6192 5.6509 5.6722 5.6772 5.7048 5.7089 5.7128 5.7138
  5.7246 5.7262 5.7318 5.739  5.7478 5.7511 5.7725 5.775  5.7773 5.7788
  5.7867 5.7905 5.8032 5.8144 5.8246 5.8249 5.8263 5.8308 5.8329 5.8334
- 5.8354 5.8384 5.8396 5.8399 5.8482 5.8503 5.8504 5.855  5.8642 5.8648
+ 5.8354 5.8384 5.8396 5.8399 5.8482 5.8503 5.8503 5.855  5.8642 5.8648
  5.8656 5.8774 5.8775 5.878  5.8787 5.8794 5.8798 5.8827 5.8835 5.8862
  5.8862 5.8884 5.8884 5.8888 5.8925 5.8959 5.8983 5.8987 5.9005 5.9015
  5.9028 5.9046 5.9091 5.914  5.9148 5.9149 5.9162 5.9178 5.9187 5.9203
@@ -31619,7 +31619,7 @@
       </c>
       <c r="C892" t="inlineStr">
         <is>
-          <t>[4.0002 4.0241 4.027  4.0717 4.0757 4.0785 4.0844 4.1055 4.1202 4.1367
+          <t>[4.0002 4.0241 4.027  4.0717 4.0758 4.0785 4.0844 4.1055 4.1202 4.1367
  4.1664 4.1739 4.1867 4.1949 4.2003 4.2024 4.2024 4.205  4.2065 4.2151
  4.2366 4.2393 4.2465 4.2532 4.2539 4.2644 4.2649 4.2656 4.2683 4.2886
  4.2975 4.2988 4.3041 4.3059 4.306  4.3104 4.3111 4.3272 4.3273 4.3381
@@ -31837,7 +31837,7 @@
  4.3076 4.3089 4.3101 4.3138 4.315  4.3186 4.3254 4.3259 4.337  4.3372
  4.341  4.3433 4.3522 4.3562 4.358  4.3593 4.3623 4.3653 4.3671 4.3683
  4.3685 4.3687 4.3692 4.3692 4.3692 4.3737 4.3746 4.3792 4.3795 4.3797
- 4.3804 4.3813 4.3823 4.3829 4.383  4.3834 4.3842 4.3869 4.389  4.3894
+ 4.3805 4.3813 4.3823 4.3829 4.383  4.3834 4.3842 4.3869 4.389  4.3894
  4.3904 4.3907 4.391  4.3916 4.3934 4.3934 4.3992 4.4037 4.4134 4.4137]</t>
         </is>
       </c>
@@ -31865,7 +31865,7 @@
       <c r="C899" t="inlineStr">
         <is>
           <t>[8.6118 8.6576 8.6626 8.6956 8.7285 8.8033 8.8039 8.8053 8.8158 8.828
- 8.8322 8.8485 8.8561 8.8744 8.8778 8.8794 8.8811 8.887  8.8908 8.891
+ 8.8322 8.8485 8.8561 8.8745 8.8778 8.8794 8.8811 8.887  8.8908 8.891
  8.895  8.9071 8.9088 8.9136 8.9167 8.9204 8.9221 8.9232 8.9234 8.9311
  8.9343 8.9372 8.9392 8.951  8.9534 8.954  8.9558 8.958  8.9611 8.9629
  8.963  8.9678 8.9681 8.9722 8.9801 8.9831 8.984  8.9841 8.9862 8.9895
@@ -31976,7 +31976,7 @@
  4.8073 4.811  4.8128 4.8141 4.8157 4.8161 4.8167 4.8198 4.8204 4.8223
  4.8236 4.8243 4.8244 4.8268 4.8315 4.8337 4.8337 4.8349 4.8357 4.8385
  4.8388 4.8437 4.8445 4.8454 4.8467 4.8476 4.8495 4.8569 4.8579 4.8585
- 4.8597 4.8606 4.8606 4.8609 4.8616 4.8626 4.864  4.8674 4.869  4.8715
+ 4.8597 4.8605 4.8606 4.8609 4.8616 4.8626 4.864  4.8674 4.869  4.8715
  4.873  4.8732 4.874  4.8754 4.8817 4.8836 4.8841 4.8843 4.8856 4.887
  4.8899 4.8907 4.892  4.8933 4.8965 4.8966 4.8991 4.8995 4.8999 4.9003]</t>
         </is>
@@ -32011,7 +32011,7 @@
  7.0608 7.0618 7.0659 7.0689 7.0706 7.0709 7.0721 7.0733 7.0771 7.0788
  7.0808 7.0812 7.0814 7.0819 7.0881 7.0908 7.091  7.0919 7.0928 7.0929
  7.0952 7.0952 7.0977 7.0995 7.1024 7.1035 7.1106 7.1113 7.1118 7.1119
- 7.1128 7.114  7.1162 7.1174 7.1174 7.1177 7.118  7.1196 7.1196 7.1198
+ 7.1128 7.114  7.1162 7.1174 7.1174 7.1177 7.1179 7.1196 7.1196 7.1198
  7.1205 7.1206 7.121  7.1246 7.1253 7.1257 7.126  7.1275 7.1275 7.1283
  7.1284 7.1286 7.1287 7.1296 7.1297 7.1312 7.1313 7.1315 7.1321 7.1343]</t>
         </is>
@@ -32152,7 +32152,7 @@
  5.0105 5.0124 5.0157 5.0184 5.0184 5.0224 5.0226 5.0235 5.0237 5.0252
  5.0272 5.0308 5.0339 5.0378 5.0381 5.0388 5.039  5.0408 5.0418 5.0443
  5.0458 5.046  5.0494 5.0501 5.056  5.0576 5.0592 5.06   5.0613 5.0613
- 5.0617 5.0642 5.065  5.0654 5.0658 5.0674 5.0707 5.071  5.0744 5.0748
+ 5.0616 5.0642 5.065  5.0654 5.0658 5.0674 5.0707 5.071  5.0744 5.0748
  5.0748 5.0757 5.0763 5.0773 5.0784 5.0789 5.079  5.0795 5.081  5.0816]</t>
         </is>
       </c>
@@ -32255,8 +32255,8 @@
  4.1718 4.1798 4.1802 4.186  4.1882 4.1886 4.1914 4.1936 4.1966 4.1969
  4.1973 4.1993 4.2039 4.2043 4.211  4.2119 4.2158 4.2191 4.2235 4.2246
  4.2254 4.2283 4.2284 4.2304 4.2317 4.2342 4.2386 4.2401 4.2419 4.2427
- 4.243  4.2437 4.2527 4.2556 4.2588 4.2599 4.2601 4.2613 4.2638 4.2641
- 4.2644 4.2662 4.2693 4.2695 4.2711 4.2713 4.2731 4.2753 4.2772 4.2785
+ 4.243  4.2437 4.2527 4.2556 4.2588 4.2598 4.2601 4.2613 4.2638 4.2641
+ 4.2644 4.2662 4.2693 4.2695 4.2711 4.2712 4.2731 4.2753 4.2772 4.2785
  4.2789 4.2796 4.2829 4.2829 4.2855 4.2866 4.2878 4.2894 4.2916 4.2922
  4.2952 4.296  4.2969 4.298  4.2984 4.2984 4.2997 4.301  4.3011 4.3068]</t>
         </is>
@@ -32292,8 +32292,8 @@
  5.1    5.1009 5.101  5.1029 5.1032 5.1054 5.1078 5.108  5.1081 5.1097
  5.116  5.1164 5.1169 5.1178 5.1186 5.1191 5.121  5.1237 5.1241 5.1243
  5.1252 5.1289 5.131  5.134  5.1349 5.1354 5.1378 5.1382 5.1387 5.1396
- 5.1399 5.1402 5.1425 5.1434 5.1443 5.1444 5.1454 5.1527 5.1571 5.1604
- 5.1606 5.1616 5.1617 5.1618 5.1632 5.1633 5.1677 5.1691 5.1694 5.1702]</t>
+ 5.1399 5.1402 5.1425 5.1434 5.1443 5.1444 5.1454 5.1527 5.157  5.1604
+ 5.1606 5.1616 5.1617 5.1618 5.1632 5.1633 5.1677 5.1691 5.1693 5.1702]</t>
         </is>
       </c>
     </row>
@@ -32494,11 +32494,11 @@
       </c>
       <c r="C917" t="inlineStr">
         <is>
-          <t>[5.7516 5.8338 5.9173 5.9235 5.9454 5.9464 5.9717 6.0138 6.0157 6.0188
+          <t>[5.7516 5.8338 5.9173 5.9235 5.9454 5.9464 5.9717 6.0137 6.0157 6.0188
  6.0279 6.0344 6.0391 6.0456 6.0585 6.0616 6.0905 6.0937 6.0945 6.0998
  6.1017 6.1087 6.1093 6.1104 6.1153 6.116  6.1197 6.1214 6.1221 6.1295
  6.1298 6.1299 6.1301 6.1302 6.1331 6.1356 6.1409 6.1419 6.1423 6.151
- 6.1525 6.153  6.1535 6.1564 6.158  6.1581 6.1592 6.1595 6.1621 6.1624
+ 6.1525 6.153  6.1535 6.1565 6.158  6.1581 6.1592 6.1595 6.1621 6.1624
  6.1642 6.1662 6.1689 6.1699 6.1703 6.1718 6.1719 6.1741 6.1764 6.177
  6.1816 6.1843 6.1863 6.1866 6.1879 6.1893 6.1913 6.1917 6.1926 6.1932
  6.1939 6.1974 6.1976 6.1981 6.1991 6.1999 6.2003 6.202  6.2037 6.2061
@@ -32564,7 +32564,7 @@
       </c>
       <c r="C919" t="inlineStr">
         <is>
-          <t>[3.1667 3.1828 3.2031 3.2742 3.2946 3.3002 3.3047 3.3116 3.3191 3.3369
+          <t>[3.1666 3.1828 3.2031 3.2742 3.2946 3.3002 3.3047 3.3116 3.3191 3.3369
  3.3419 3.3505 3.3606 3.3699 3.3769 3.38   3.382  3.3861 3.4027 3.4324
  3.448  3.4509 3.4517 3.452  3.452  3.4548 3.4606 3.465  3.4732 3.4777
  3.4799 3.4832 3.4855 3.4913 3.4922 3.5006 3.5039 3.5073 3.5094 3.5169
@@ -32604,7 +32604,7 @@
  5.3104 5.3123 5.3176 5.3363 5.3543 5.3691 5.3797 5.3817 5.4081 5.415
  5.4213 5.4222 5.4233 5.4238 5.4273 5.4347 5.4674 5.4703 5.4754 5.4803
  5.4845 5.4858 5.506  5.5084 5.5093 5.5112 5.5126 5.5132 5.5145 5.5199
- 5.5308 5.5318 5.539  5.5407 5.5527 5.5594 5.5616 5.5647 5.5683 5.5691
+ 5.5308 5.5318 5.5389 5.5407 5.5527 5.5594 5.5616 5.5647 5.5683 5.5691
  5.5712 5.5737 5.5806 5.5806 5.5807 5.5835 5.5852 5.5896 5.5911 5.5915
  5.592  5.5928 5.5998 5.6029 5.6198 5.6215 5.6264 5.6304 5.6326 5.6354
  5.6369 5.6455 5.6482 5.6484 5.649  5.651  5.6529 5.6532 5.6543 5.6544
@@ -32809,7 +32809,7 @@
       </c>
       <c r="C926" t="inlineStr">
         <is>
-          <t>[4.7274 4.7414 4.7426 4.7449 4.7678 4.7734 4.775  4.795  4.8208 4.8235
+          <t>[4.7274 4.7414 4.7426 4.7449 4.7678 4.7734 4.775  4.795  4.8208 4.8236
  4.827  4.8318 4.8341 4.8355 4.8402 4.8404 4.8565 4.8635 4.8703 4.8798
  4.8844 4.8857 4.8862 4.8887 4.8897 4.8904 4.8939 4.896  4.8981 4.8991
  4.8995 4.8997 4.903  4.9054 4.9079 4.9128 4.9137 4.9216 4.922  4.9229
@@ -33236,7 +33236,7 @@
  8.1278 8.1383 8.1401 8.1401 8.1427 8.1431 8.1448 8.1451 8.1473 8.1485
  8.1528 8.1567 8.1572 8.1628 8.1647 8.1707 8.1746 8.1749 8.1762 8.1801
  8.1804 8.1828 8.1842 8.1846 8.1901 8.1922 8.1932 8.1945 8.1956 8.1957
- 8.1981 8.2002 8.2059 8.2076 8.2092 8.2117 8.213  8.2143 8.2215 8.2222
+ 8.1981 8.2002 8.2059 8.2076 8.2092 8.2116 8.213  8.2143 8.2215 8.2222
  8.2234 8.2238 8.2253 8.2274 8.2317 8.2324 8.2335 8.2335 8.2338 8.237
  8.2395 8.2396 8.2405 8.2409 8.2415 8.2427 8.2433 8.2433 8.2436 8.2442]</t>
         </is>
@@ -33513,8 +33513,8 @@
  5.5242 5.5461 5.5551 5.5577 5.5712 5.5833 5.5854 5.6184 5.6361 5.6534
  5.662  5.6664 5.6757 5.6778 5.6848 5.6902 5.7043 5.7045 5.7074 5.7093
  5.7114 5.7146 5.7151 5.7165 5.7196 5.7213 5.7242 5.7245 5.7275 5.7284
- 5.7308 5.7398 5.7404 5.7421 5.7431 5.748  5.7483 5.7511 5.7563 5.7663
- 5.768  5.7685 5.7712 5.7746 5.7823 5.783  5.7856 5.7862 5.7868 5.7906
+ 5.7308 5.7398 5.7404 5.7421 5.7431 5.7479 5.7483 5.7511 5.7563 5.7663
+ 5.7679 5.7685 5.7712 5.7746 5.7823 5.783  5.7856 5.7862 5.7868 5.7906
  5.7922 5.7925 5.7943 5.7988 5.8006 5.801  5.8017 5.8021 5.8026 5.8031
  5.8035 5.8063 5.8097 5.8117 5.8123 5.8156 5.8156 5.8166 5.8183 5.8183
  5.8193 5.8194 5.8236 5.8238 5.8248 5.8252 5.8259 5.8274 5.8292 5.8294
@@ -33618,7 +33618,7 @@
  4.8276 4.8404 4.8432 4.8466 4.8492 4.856  4.864  4.8774 4.9009 4.9138
  4.9223 4.9323 4.9347 4.9465 4.9473 4.9498 4.9513 4.9534 4.9602 4.9698
  4.9916 5.0028 5.0103 5.0105 5.0114 5.0162 5.0165 5.0186 5.0231 5.0254
- 5.0275 5.0341 5.0387 5.043  5.0459 5.047  5.0525 5.0584 5.0644 5.0669
+ 5.0275 5.0342 5.0387 5.043  5.0459 5.047  5.0525 5.0584 5.0644 5.0669
  5.0819 5.0838 5.0889 5.0946 5.0976 5.0976 5.1046 5.106  5.1066 5.1094
  5.1153 5.1164 5.1198 5.1226 5.1229 5.1242 5.125  5.1271 5.1282 5.1288
  5.132  5.1371 5.1383 5.1422 5.153  5.1567 5.1568 5.1569 5.1582 5.1608
@@ -34072,7 +34072,7 @@
           <t>[2.0801 2.5401 2.9198 3.1871 3.3931 3.4193 3.4424 3.4896 3.4932 3.5018
  3.5468 3.5533 3.5561 3.6142 3.6226 3.6618 3.7078 3.7114 3.7153 3.7169
  3.74   3.75   3.7576 3.7812 3.7887 3.7918 3.8014 3.8142 3.8468 3.8612
- 3.8789 3.8873 3.8928 3.8941 3.9112 3.9125 3.9163 3.9438 3.9449 3.9505
+ 3.8789 3.8873 3.8928 3.8941 3.9112 3.9125 3.9162 3.9438 3.9449 3.9505
  3.9557 3.9578 3.9644 3.9674 3.9687 3.9691 3.9706 3.9847 3.9922 3.9941
  3.9953 3.997  4.005  4.0168 4.0183 4.0328 4.0343 4.037  4.0386 4.0417
  4.0503 4.0516 4.061  4.0711 4.0777 4.0785 4.0796 4.0835 4.0836 4.0907
@@ -34145,7 +34145,7 @@
  6.2825 6.2839 6.2887 6.2963 6.2964 6.2999 6.3008 6.3117 6.3122 6.315
  6.3157 6.3169 6.3219 6.3251 6.3286 6.3314 6.3315 6.3317 6.3331 6.3361
  6.3374 6.342  6.3452 6.3467 6.3503 6.3506 6.3551 6.3552 6.3553 6.3554
- 6.358  6.3598 6.3621 6.3638 6.3639 6.3694 6.3695 6.3721 6.3722 6.3728
+ 6.358  6.3598 6.3621 6.3638 6.3639 6.3694 6.3695 6.3721 6.3721 6.3728
  6.3738 6.3743 6.3751 6.3752 6.3783 6.3785 6.3836 6.3842 6.3852 6.3862
  6.3869 6.3942 6.3985 6.3988 6.3996 6.4023 6.4038 6.4039 6.4067 6.4069
  6.4083 6.4095 6.4098 6.4122 6.4126 6.4132 6.4158 6.4176 6.4184 6.4201]</t>
@@ -34454,7 +34454,7 @@
       </c>
       <c r="C973" t="inlineStr">
         <is>
-          <t>[6.2428 6.3896 6.6023 6.7382 6.8642 6.8837 6.9809 7.0577 7.1053 7.1133
+          <t>[6.2428 6.3896 6.6024 6.7382 6.8642 6.8837 6.9809 7.0577 7.1053 7.1133
  7.117  7.1187 7.1242 7.1326 7.1346 7.1365 7.1785 7.1939 7.209  7.2186
  7.2245 7.2259 7.2292 7.2301 7.2319 7.246  7.2464 7.2485 7.2499 7.2502
  7.2504 7.2515 7.2586 7.2587 7.2628 7.2779 7.2801 7.281  7.3013 7.3038
@@ -34525,7 +34525,7 @@
       <c r="C975" t="inlineStr">
         <is>
           <t>[4.6592 5.1983 5.2131 5.2593 5.2843 5.2876 5.317  5.335  5.3394 5.3453
- 5.3456 5.3759 5.4294 5.4345 5.4367 5.4407 5.4474 5.4555 5.4556 5.4681
+ 5.3456 5.3759 5.4294 5.4345 5.4367 5.4407 5.4474 5.4555 5.4556 5.4682
  5.475  5.4796 5.4802 5.4807 5.4848 5.4861 5.4873 5.5003 5.503  5.511
  5.5139 5.5157 5.5235 5.5251 5.5254 5.5259 5.5262 5.528  5.5289 5.5294
  5.5303 5.5323 5.5353 5.5367 5.538  5.5397 5.5428 5.5464 5.547  5.5503
@@ -34564,7 +34564,7 @@
  3.99   4.0087 4.0294 4.033  4.0632 4.0752 4.127  4.1532 4.1744 4.176
  4.1872 4.1916 4.1974 4.1984 4.2033 4.2287 4.2348 4.2572 4.2591 4.2612
  4.2806 4.2934 4.297  4.3019 4.305  4.3072 4.3099 4.3117 4.3267 4.3407
- 4.3431 4.3507 4.3569 4.3722 4.3814 4.3928 4.3967 4.4002 4.4148 4.4153
+ 4.3431 4.3507 4.3568 4.3722 4.3814 4.3928 4.3967 4.4002 4.4148 4.4153
  4.4166 4.4189 4.4312 4.4312 4.4354 4.478  4.4805 4.4837 4.4909 4.5075
  4.512  4.5128 4.515  4.5185 4.5186 4.5329 4.5359 4.5361 4.5411 4.5431
  4.5461 4.5485 4.5561 4.5583 4.5604 4.5639 4.5643 4.5676 4.5692 4.5803
@@ -35050,7 +35050,7 @@
       <c r="C990" t="inlineStr">
         <is>
           <t>[5.6684 5.6792 5.702  5.7098 5.7236 5.7254 5.7443 5.7461 5.7539 5.7676
- 5.8093 5.8104 5.8117 5.8181 5.8243 5.835  5.8389 5.846  5.86   5.8649
+ 5.8092 5.8104 5.8117 5.8181 5.8243 5.835  5.8389 5.846  5.86   5.8649
  5.8695 5.8711 5.8794 5.8818 5.8869 5.888  5.8948 5.8989 5.9049 5.9131
  5.9142 5.9154 5.9301 5.9315 5.9319 5.9321 5.9373 5.948  5.9493 5.9496
  5.9554 5.9584 5.9593 5.9606 5.9608 5.9636 5.9677 5.9718 5.9721 5.9734
@@ -35261,7 +35261,7 @@
         <is>
           <t>[6.9672 7.0448 7.1167 7.1199 7.1267 7.1721 7.1919 7.2015 7.2077 7.2131
  7.2576 7.2646 7.2682 7.2791 7.2857 7.2916 7.3021 7.3097 7.3119 7.3202
- 7.3254 7.3259 7.3339 7.3353 7.3431 7.3517 7.3585 7.363  7.3651 7.3667
+ 7.3254 7.3259 7.3339 7.3353 7.3431 7.3517 7.3586 7.363  7.3651 7.3667
  7.3679 7.3704 7.372  7.3743 7.3793 7.3807 7.3808 7.3894 7.3898 7.3906
  7.3918 7.3954 7.3986 7.3991 7.4004 7.4014 7.4034 7.4062 7.4067 7.4067
  7.4073 7.4096 7.41   7.4106 7.4138 7.4168 7.4173 7.4179 7.4192 7.4205
